--- a/gastos/quero-investir-agora-planilha-de-gastos-mensais.xlsx
+++ b/gastos/quero-investir-agora-planilha-de-gastos-mensais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judah/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Judah/eXcel/gastos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Luz</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Meta de Poupança / Renda (%)</t>
   </si>
   <si>
-    <t>Telefone/TV/Internet</t>
-  </si>
-  <si>
     <t>Condominio</t>
   </si>
   <si>
@@ -204,6 +201,57 @@
   </si>
   <si>
     <t>Celular Lucas</t>
+  </si>
+  <si>
+    <t>Telefone/Internet</t>
+  </si>
+  <si>
+    <t>Kleber 2</t>
+  </si>
+  <si>
+    <t>Alimentação Lucas</t>
+  </si>
+  <si>
+    <t>Alimentação Kleber</t>
+  </si>
+  <si>
+    <t>Alimentação Judah</t>
+  </si>
+  <si>
+    <t>Alimentação Gal</t>
+  </si>
+  <si>
+    <t>Cartão Judah</t>
+  </si>
+  <si>
+    <t>Cartão Lucas</t>
+  </si>
+  <si>
+    <t>IPTU</t>
+  </si>
+  <si>
+    <t>CREA Kleber</t>
+  </si>
+  <si>
+    <t>Unifor Lucas</t>
+  </si>
+  <si>
+    <t>Multas</t>
+  </si>
+  <si>
+    <t>FIES Judah/Lucas</t>
+  </si>
+  <si>
+    <t>Financiamneto Landscape</t>
+  </si>
+  <si>
+    <t>Adiantamento Landscape</t>
+  </si>
+  <si>
+    <t>Alimentação/Casa</t>
+  </si>
+  <si>
+    <t>Titim/Eliezer</t>
   </si>
 </sst>
 </file>
@@ -414,7 +462,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -451,7 +499,6 @@
     <xf numFmtId="9" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1056,7 +1103,7 @@
                   <c:v>IPVA Carro 3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Telefone/TV/Internet</c:v>
+                  <c:v>Telefone/Internet</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>Celular Judah</c:v>
@@ -1069,6 +1116,48 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Celular Lucas</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Alimentação/Casa</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Alimentação Lucas</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Alimentação Kleber</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Alimentação Gal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Alimentação Judah</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Cartão Judah</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Cartão Lucas</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>IPTU</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CREA Kleber</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Unifor Lucas</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Multas</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>FIES Judah/Lucas</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Financiamneto Landscape</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Adiantamento Landscape</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>IPTU Landscape</c:v>
@@ -1101,13 +1190,13 @@
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>880.0</c:v>
+                  <c:v>885.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1900.0</c:v>
+                  <c:v>1655.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>420.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>180.0</c:v>
@@ -1130,26 +1219,62 @@
                 <c:pt idx="10">
                   <c:v>350.0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>670.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>670.0</c:v>
+                </c:pt>
                 <c:pt idx="15">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>200.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40.0</c:v>
+                <c:pt idx="22">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2024.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>131.65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3570.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20000.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>162.86</c:v>
+                  <c:v>173.64</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.0</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>112.5</c:v>
@@ -1181,11 +1306,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="1405590336"/>
-        <c:axId val="1405256816"/>
+        <c:axId val="1029428768"/>
+        <c:axId val="1296892176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1405590336"/>
+        <c:axId val="1029428768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1405256816"/>
+        <c:crossAx val="1296892176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1250,7 +1375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1405256816"/>
+        <c:axId val="1296892176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1385,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1405590336"/>
+        <c:crossAx val="1029428768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,40 +1530,40 @@
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7241.13</c:v>
+                  <c:v>10164.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>-18936.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000.0</c:v>
+                  <c:v>6957.600000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000.0</c:v>
+                  <c:v>8008.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2000.0</c:v>
+                  <c:v>8571.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000.0</c:v>
+                  <c:v>8524.469999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>8969.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000.0</c:v>
+                  <c:v>9005.480000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000.0</c:v>
+                  <c:v>8905.480000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2000.0</c:v>
+                  <c:v>8305.480000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2000.0</c:v>
+                  <c:v>8305.480000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000.0</c:v>
+                  <c:v>8205.480000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,8 +1578,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="247"/>
-        <c:axId val="1298544160"/>
-        <c:axId val="1436576032"/>
+        <c:axId val="1441468128"/>
+        <c:axId val="1494361840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1536,40 +1661,40 @@
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3020.0</c:v>
+                  <c:v>10320.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400.0</c:v>
+                  <c:v>5310.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400.0</c:v>
+                  <c:v>4320.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,11 +1711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1298544160"/>
-        <c:axId val="1436576032"/>
+        <c:axId val="1441468128"/>
+        <c:axId val="1494361840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1298544160"/>
+        <c:axId val="1441468128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1633,7 +1758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1436576032"/>
+        <c:crossAx val="1494361840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1641,7 +1766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1436576032"/>
+        <c:axId val="1494361840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,7 +1817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1298544160"/>
+        <c:crossAx val="1441468128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1706,7 +1831,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1788,7 +1912,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1898,40 +2021,40 @@
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7241.13</c:v>
+                  <c:v>10164.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9241.13</c:v>
+                  <c:v>-8772.669999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11241.13</c:v>
+                  <c:v>-1815.069999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13241.13</c:v>
+                  <c:v>6193.660000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15241.13</c:v>
+                  <c:v>14765.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17241.13</c:v>
+                  <c:v>23290.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19241.13</c:v>
+                  <c:v>32260.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21241.13</c:v>
+                  <c:v>41265.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23241.13</c:v>
+                  <c:v>50171.07000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25241.13</c:v>
+                  <c:v>58476.55000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27241.13</c:v>
+                  <c:v>66782.03000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29241.13</c:v>
+                  <c:v>74987.51000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,11 +2068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1434936592"/>
-        <c:axId val="1434938912"/>
+        <c:axId val="1298768208"/>
+        <c:axId val="1495848256"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1434936592"/>
+        <c:axId val="1298768208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +2115,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434938912"/>
+        <c:crossAx val="1495848256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2000,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1434938912"/>
+        <c:axId val="1495848256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1434936592"/>
+        <c:crossAx val="1298768208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4107,7 +4230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A36" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4161,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4232,152 +4355,262 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>9000</v>
+        <v>8300</v>
       </c>
       <c r="D6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="E6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="F6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="G6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="H6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="I6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="J6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="K6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="L6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="M6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
       <c r="N6" s="7">
-        <v>2000</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8">
         <v>5000</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="D7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="L7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N7" s="8">
+        <v>5000</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8">
         <v>1100</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="D8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1100</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1100</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="L9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="M9" s="8">
+        <v>5700</v>
+      </c>
+      <c r="N9" s="8">
+        <v>5700</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="15">
+        <f>30000+1500</f>
+        <v>31500</v>
+      </c>
+      <c r="D10" s="15">
+        <f>4950+1500</f>
+        <v>6450</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1500</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1500</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="11">
-        <f>IF(C6="","",SUM(C6:C10))</f>
-        <v>15100</v>
+        <f t="shared" ref="C11:N11" si="0">IF(C6="","",SUM(C6:C10))</f>
+        <v>51600</v>
       </c>
       <c r="D11" s="11">
-        <f>IF(D6="","",SUM(D6:D10))</f>
-        <v>2000</v>
+        <f t="shared" ref="D11" si="1">IF(D6="","",SUM(D6:D10))</f>
+        <v>26550</v>
       </c>
       <c r="E11" s="11">
-        <f>IF(E6="","",SUM(E6:E10))</f>
-        <v>2000</v>
+        <f t="shared" ref="E11" si="2">IF(E6="","",SUM(E6:E10))</f>
+        <v>21600</v>
       </c>
       <c r="F11" s="11">
-        <f>IF(F6="","",SUM(F6:F10))</f>
-        <v>2000</v>
+        <f t="shared" ref="F11" si="3">IF(F6="","",SUM(F6:F10))</f>
+        <v>21600</v>
       </c>
       <c r="G11" s="11">
-        <f>IF(G6="","",SUM(G6:G10))</f>
-        <v>2000</v>
+        <f t="shared" ref="G11" si="4">IF(G6="","",SUM(G6:G10))</f>
+        <v>21600</v>
       </c>
       <c r="H11" s="11">
-        <f>IF(H6="","",SUM(H6:H10))</f>
-        <v>2000</v>
+        <f t="shared" ref="H11" si="5">IF(H6="","",SUM(H6:H10))</f>
+        <v>21600</v>
       </c>
       <c r="I11" s="11">
-        <f>IF(I6="","",SUM(I6:I10))</f>
-        <v>2000</v>
+        <f t="shared" ref="I11" si="6">IF(I6="","",SUM(I6:I10))</f>
+        <v>21600</v>
       </c>
       <c r="J11" s="11">
-        <f>IF(J6="","",SUM(J6:J10))</f>
-        <v>2000</v>
+        <f t="shared" ref="J11" si="7">IF(J6="","",SUM(J6:J10))</f>
+        <v>21600</v>
       </c>
       <c r="K11" s="11">
-        <f>IF(K6="","",SUM(K6:K10))</f>
-        <v>2000</v>
+        <f t="shared" ref="K11" si="8">IF(K6="","",SUM(K6:K10))</f>
+        <v>21600</v>
       </c>
       <c r="L11" s="11">
-        <f>IF(L6="","",SUM(L6:L10))</f>
-        <v>2000</v>
+        <f t="shared" ref="L11" si="9">IF(L6="","",SUM(L6:L10))</f>
+        <v>21600</v>
       </c>
       <c r="M11" s="11">
-        <f>IF(M6="","",SUM(M6:M10))</f>
-        <v>2000</v>
+        <f t="shared" ref="M11" si="10">IF(M6="","",SUM(M6:M10))</f>
+        <v>21600</v>
       </c>
       <c r="N11" s="11">
-        <f>IF(N6="","",SUM(N6:N10))</f>
-        <v>2000</v>
+        <f t="shared" ref="N11" si="11">IF(N6="","",SUM(N6:N10))</f>
+        <v>21600</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -4399,159 +4632,335 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
-        <v>880</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+        <v>885</v>
+      </c>
+      <c r="D14" s="7">
+        <v>885</v>
+      </c>
+      <c r="E14" s="7">
+        <v>885</v>
+      </c>
+      <c r="F14" s="7">
+        <v>885</v>
+      </c>
+      <c r="G14" s="7">
+        <v>885</v>
+      </c>
+      <c r="H14" s="7">
+        <v>885</v>
+      </c>
+      <c r="I14" s="7">
+        <v>885</v>
+      </c>
+      <c r="J14" s="7">
+        <v>885</v>
+      </c>
+      <c r="K14" s="7">
+        <v>885</v>
+      </c>
+      <c r="L14" s="7">
+        <v>885</v>
+      </c>
+      <c r="M14" s="7">
+        <v>885</v>
+      </c>
+      <c r="N14" s="7">
+        <v>885</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8">
-        <v>1900</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+        <v>1655.72</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1655.72</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="8">
+        <v>420.72</v>
+      </c>
+      <c r="D16" s="8">
         <v>400</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="E16" s="8">
+        <v>400</v>
+      </c>
+      <c r="F16" s="8">
+        <v>400</v>
+      </c>
+      <c r="G16" s="8">
+        <v>400</v>
+      </c>
+      <c r="H16" s="8">
+        <v>400</v>
+      </c>
+      <c r="I16" s="8">
+        <v>400</v>
+      </c>
+      <c r="J16" s="8">
+        <v>400</v>
+      </c>
+      <c r="K16" s="8">
+        <v>400</v>
+      </c>
+      <c r="L16" s="8">
+        <v>400</v>
+      </c>
+      <c r="M16" s="8">
+        <v>400</v>
+      </c>
+      <c r="N16" s="8">
+        <v>400</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
         <v>180</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="D17" s="7">
+        <v>180</v>
+      </c>
+      <c r="E17" s="7">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7">
+        <v>180</v>
+      </c>
+      <c r="H17" s="7">
+        <v>180</v>
+      </c>
+      <c r="I17" s="7">
+        <v>180</v>
+      </c>
+      <c r="J17" s="7">
+        <v>180</v>
+      </c>
+      <c r="K17" s="7">
+        <v>180</v>
+      </c>
+      <c r="L17" s="7">
+        <v>180</v>
+      </c>
+      <c r="M17" s="7">
+        <v>180</v>
+      </c>
+      <c r="N17" s="7">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8">
         <v>580</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="D18" s="8">
+        <v>580</v>
+      </c>
+      <c r="E18" s="8">
+        <v>580</v>
+      </c>
+      <c r="F18" s="8">
+        <v>580</v>
+      </c>
+      <c r="G18" s="8">
+        <v>580</v>
+      </c>
+      <c r="H18" s="8">
+        <v>580</v>
+      </c>
+      <c r="I18" s="8">
+        <v>580</v>
+      </c>
+      <c r="J18" s="8">
+        <v>580</v>
+      </c>
+      <c r="K18" s="8">
+        <v>580</v>
+      </c>
+      <c r="L18" s="8">
+        <v>580</v>
+      </c>
+      <c r="M18" s="8">
+        <v>580</v>
+      </c>
+      <c r="N18" s="8">
+        <v>580</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>600</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="D19" s="7">
+        <v>600</v>
+      </c>
+      <c r="E19" s="7">
+        <v>600</v>
+      </c>
+      <c r="F19" s="7">
+        <v>600</v>
+      </c>
+      <c r="G19" s="7">
+        <v>600</v>
+      </c>
+      <c r="H19" s="7">
+        <v>600</v>
+      </c>
+      <c r="I19" s="7">
+        <v>600</v>
+      </c>
+      <c r="J19" s="7">
+        <v>600</v>
+      </c>
+      <c r="K19" s="7">
+        <v>600</v>
+      </c>
+      <c r="L19" s="7">
+        <v>600</v>
+      </c>
+      <c r="M19" s="7">
+        <v>600</v>
+      </c>
+      <c r="N19" s="7">
+        <v>600</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="8">
         <v>300</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="D20" s="8">
+        <v>300</v>
+      </c>
+      <c r="E20" s="8">
+        <v>300</v>
+      </c>
+      <c r="F20" s="8">
+        <v>300</v>
+      </c>
+      <c r="G20" s="8">
+        <v>300</v>
+      </c>
+      <c r="H20" s="8">
+        <v>300</v>
+      </c>
+      <c r="I20" s="8">
+        <v>300</v>
+      </c>
+      <c r="J20" s="8">
+        <v>300</v>
+      </c>
+      <c r="K20" s="8">
+        <v>300</v>
+      </c>
+      <c r="L20" s="8">
+        <v>300</v>
+      </c>
+      <c r="M20" s="8">
+        <v>300</v>
+      </c>
+      <c r="N20" s="8">
+        <v>300</v>
+      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
         <v>300</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="D21" s="7">
+        <v>300</v>
+      </c>
+      <c r="E21" s="7">
+        <v>300</v>
+      </c>
+      <c r="F21" s="7">
+        <v>300</v>
+      </c>
+      <c r="G21" s="7">
+        <v>300</v>
+      </c>
+      <c r="H21" s="7">
+        <v>300</v>
+      </c>
+      <c r="I21" s="7">
+        <v>300</v>
+      </c>
+      <c r="J21" s="7">
+        <v>300</v>
+      </c>
+      <c r="K21" s="7">
+        <v>300</v>
+      </c>
+      <c r="L21" s="7">
+        <v>300</v>
+      </c>
+      <c r="M21" s="7">
+        <v>300</v>
+      </c>
+      <c r="N21" s="7">
+        <v>300</v>
+      </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4568,284 +4977,570 @@
     </row>
     <row r="23" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="7">
         <v>350</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="D23" s="7">
+        <v>350</v>
+      </c>
+      <c r="E23" s="7">
+        <v>350</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <v>350</v>
+      </c>
+      <c r="M23" s="7">
+        <v>350</v>
+      </c>
+      <c r="N23" s="7">
+        <v>350</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="7">
         <v>350</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="7">
+        <v>350</v>
+      </c>
+      <c r="E24" s="7">
+        <v>350</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="L24" s="7">
+        <v>350</v>
+      </c>
+      <c r="M24" s="7">
+        <v>350</v>
+      </c>
+      <c r="N24" s="7">
+        <v>350</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="C26" s="7">
+        <v>670</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
       <c r="P26" s="15"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="C27" s="7">
+        <v>670</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="2:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
-        <v>25</v>
+      <c r="B29" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="8">
-        <v>200</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="D29" s="8">
+        <v>100</v>
+      </c>
+      <c r="E29" s="8">
+        <v>100</v>
+      </c>
+      <c r="F29" s="8">
+        <v>100</v>
+      </c>
+      <c r="G29" s="8">
+        <v>100</v>
+      </c>
+      <c r="H29" s="8">
+        <v>100</v>
+      </c>
+      <c r="I29" s="8">
+        <v>100</v>
+      </c>
+      <c r="J29" s="8">
+        <v>100</v>
+      </c>
+      <c r="K29" s="8">
+        <v>100</v>
+      </c>
+      <c r="L29" s="8">
+        <v>100</v>
+      </c>
+      <c r="M29" s="8">
+        <v>100</v>
+      </c>
+      <c r="N29" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="7">
         <v>50</v>
       </c>
-      <c r="C30" s="7">
-        <v>40</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
+      <c r="D30" s="7">
+        <v>50</v>
+      </c>
+      <c r="E30" s="7">
+        <v>50</v>
+      </c>
+      <c r="F30" s="7">
+        <v>50</v>
+      </c>
+      <c r="G30" s="7">
+        <v>50</v>
+      </c>
+      <c r="H30" s="7">
+        <v>50</v>
+      </c>
+      <c r="I30" s="7">
+        <v>50</v>
+      </c>
+      <c r="J30" s="7">
+        <v>50</v>
+      </c>
+      <c r="K30" s="7">
+        <v>50</v>
+      </c>
+      <c r="L30" s="7">
+        <v>50</v>
+      </c>
+      <c r="M30" s="7">
+        <v>50</v>
+      </c>
+      <c r="N30" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="8">
-        <v>40</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D31" s="8">
+        <v>25</v>
+      </c>
+      <c r="E31" s="8">
+        <v>25</v>
+      </c>
+      <c r="F31" s="8">
+        <v>25</v>
+      </c>
+      <c r="G31" s="8">
+        <v>25</v>
+      </c>
+      <c r="H31" s="8">
+        <v>25</v>
+      </c>
+      <c r="I31" s="8">
+        <v>25</v>
+      </c>
+      <c r="J31" s="8">
+        <v>25</v>
+      </c>
+      <c r="K31" s="8">
+        <v>25</v>
+      </c>
+      <c r="L31" s="8">
+        <v>25</v>
+      </c>
+      <c r="M31" s="8">
+        <v>25</v>
+      </c>
+      <c r="N31" s="8">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7">
-        <v>40</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D32" s="7">
+        <v>25</v>
+      </c>
+      <c r="E32" s="7">
+        <v>25</v>
+      </c>
+      <c r="F32" s="7">
+        <v>25</v>
+      </c>
+      <c r="G32" s="7">
+        <v>25</v>
+      </c>
+      <c r="H32" s="7">
+        <v>25</v>
+      </c>
+      <c r="I32" s="7">
+        <v>25</v>
+      </c>
+      <c r="J32" s="7">
+        <v>25</v>
+      </c>
+      <c r="K32" s="7">
+        <v>25</v>
+      </c>
+      <c r="L32" s="7">
+        <v>25</v>
+      </c>
+      <c r="M32" s="7">
+        <v>25</v>
+      </c>
+      <c r="N32" s="7">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="8">
-        <v>40</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D33" s="8">
+        <v>35</v>
+      </c>
+      <c r="E33" s="8">
+        <v>35</v>
+      </c>
+      <c r="F33" s="8">
+        <v>35</v>
+      </c>
+      <c r="G33" s="8">
+        <v>35</v>
+      </c>
+      <c r="H33" s="8">
+        <v>35</v>
+      </c>
+      <c r="I33" s="8">
+        <v>35</v>
+      </c>
+      <c r="J33" s="8">
+        <v>35</v>
+      </c>
+      <c r="K33" s="8">
+        <v>35</v>
+      </c>
+      <c r="L33" s="8">
+        <v>35</v>
+      </c>
+      <c r="M33" s="8">
+        <v>35</v>
+      </c>
+      <c r="N33" s="8">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="L34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="M34" s="8">
+        <v>1200</v>
+      </c>
+      <c r="N34" s="8">
+        <v>1200</v>
+      </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="B35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="8">
+        <v>200</v>
+      </c>
+      <c r="D35" s="8">
+        <v>200</v>
+      </c>
+      <c r="E35" s="8">
+        <v>200</v>
+      </c>
+      <c r="F35" s="8">
+        <v>200</v>
+      </c>
+      <c r="G35" s="8">
+        <v>200</v>
+      </c>
+      <c r="H35" s="8">
+        <v>200</v>
+      </c>
+      <c r="I35" s="8">
+        <v>200</v>
+      </c>
+      <c r="J35" s="8">
+        <v>200</v>
+      </c>
+      <c r="K35" s="8">
+        <v>200</v>
+      </c>
+      <c r="L35" s="8">
+        <v>200</v>
+      </c>
+      <c r="M35" s="8">
+        <v>200</v>
+      </c>
+      <c r="N35" s="8">
+        <v>200</v>
+      </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="B36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="8">
+        <v>300</v>
+      </c>
+      <c r="D36" s="8">
+        <v>300</v>
+      </c>
+      <c r="E36" s="8">
+        <v>300</v>
+      </c>
+      <c r="F36" s="8">
+        <v>300</v>
+      </c>
+      <c r="G36" s="8">
+        <v>300</v>
+      </c>
+      <c r="H36" s="8">
+        <v>300</v>
+      </c>
+      <c r="I36" s="8">
+        <v>300</v>
+      </c>
+      <c r="J36" s="8">
+        <v>300</v>
+      </c>
+      <c r="K36" s="8">
+        <v>300</v>
+      </c>
+      <c r="L36" s="8">
+        <v>300</v>
+      </c>
+      <c r="M36" s="8">
+        <v>300</v>
+      </c>
+      <c r="N36" s="8">
+        <v>300</v>
+      </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="B37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="7">
+        <v>150</v>
+      </c>
+      <c r="D37" s="7">
+        <v>150</v>
+      </c>
+      <c r="E37" s="7">
+        <v>150</v>
+      </c>
+      <c r="F37" s="7">
+        <v>150</v>
+      </c>
+      <c r="G37" s="7">
+        <v>150</v>
+      </c>
+      <c r="H37" s="7">
+        <v>150</v>
+      </c>
+      <c r="I37" s="7">
+        <v>150</v>
+      </c>
+      <c r="J37" s="7">
+        <v>150</v>
+      </c>
+      <c r="K37" s="7">
+        <v>150</v>
+      </c>
+      <c r="L37" s="7">
+        <v>150</v>
+      </c>
+      <c r="M37" s="7">
+        <v>150</v>
+      </c>
+      <c r="N37" s="7">
+        <v>150</v>
+      </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="B38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="7">
+        <v>150</v>
+      </c>
+      <c r="D38" s="7">
+        <v>150</v>
+      </c>
+      <c r="E38" s="7">
+        <v>150</v>
+      </c>
+      <c r="F38" s="7">
+        <v>150</v>
+      </c>
+      <c r="G38" s="7">
+        <v>150</v>
+      </c>
+      <c r="H38" s="7">
+        <v>150</v>
+      </c>
+      <c r="I38" s="7">
+        <v>150</v>
+      </c>
+      <c r="J38" s="7">
+        <v>150</v>
+      </c>
+      <c r="K38" s="7">
+        <v>150</v>
+      </c>
+      <c r="L38" s="7">
+        <v>150</v>
+      </c>
+      <c r="M38" s="7">
+        <v>150</v>
+      </c>
+      <c r="N38" s="7">
+        <v>150</v>
+      </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="B39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2024.11</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2173.44</v>
+      </c>
+      <c r="E39" s="8">
+        <v>666.79</v>
+      </c>
+      <c r="F39" s="8">
+        <v>466.8</v>
+      </c>
+      <c r="G39" s="8">
+        <v>433.49</v>
+      </c>
+      <c r="H39" s="8">
+        <v>381.01</v>
+      </c>
+      <c r="I39" s="8">
+        <v>35.49</v>
+      </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -4853,6 +5548,9 @@
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -4867,24 +5565,60 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="8"/>
+      <c r="B41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="D41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="E41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="F41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="G41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="H41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="I41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="J41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="K41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="L41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="M41" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="N41" s="7">
+        <v>131.65</v>
+      </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="D42" s="8">
+        <v>450.46</v>
+      </c>
+      <c r="E42" s="8">
+        <v>476.96</v>
+      </c>
+      <c r="F42" s="8">
+        <v>529.95000000000005</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -4895,8 +5629,15 @@
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="B43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="8">
+        <v>4000</v>
+      </c>
+      <c r="D43" s="8">
+        <v>14568.4</v>
+      </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4909,9 +5650,14 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="8">
+        <v>104.13</v>
+      </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -4923,36 +5669,81 @@
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8">
+        <v>100</v>
+      </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="8">
+        <v>100</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="K45" s="8">
+        <v>100</v>
+      </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="N45" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
+      <c r="B46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="E46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="F46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="G46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="H46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="I46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="J46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="K46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="L46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="M46" s="7">
+        <v>3570</v>
+      </c>
+      <c r="N46" s="7">
+        <v>3570</v>
+      </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="B47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D47" s="8">
+        <v>15000</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -4966,29 +5757,51 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="8">
-        <v>162.86000000000001</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
+        <v>173.64</v>
+      </c>
+      <c r="D48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="E48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="F48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="G48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="H48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="I48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="J48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="K48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="L48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="M48" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="N48" s="8">
+        <v>173.64</v>
+      </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="8">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -5004,150 +5817,260 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="8">
         <v>112.5</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
+      <c r="D50" s="8">
+        <v>250</v>
+      </c>
+      <c r="E50" s="8">
+        <v>250</v>
+      </c>
+      <c r="F50" s="8">
+        <v>250</v>
+      </c>
+      <c r="G50" s="8">
+        <v>250</v>
+      </c>
+      <c r="H50" s="8">
+        <v>250</v>
+      </c>
+      <c r="I50" s="8">
+        <v>250</v>
+      </c>
+      <c r="J50" s="8">
+        <v>250</v>
+      </c>
+      <c r="K50" s="8">
+        <v>250</v>
+      </c>
+      <c r="L50" s="8">
+        <v>250</v>
+      </c>
+      <c r="M50" s="8">
+        <v>250</v>
+      </c>
+      <c r="N50" s="8">
+        <v>250</v>
+      </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="8">
         <v>487.12</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
+      <c r="D51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="E51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="F51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="G51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="H51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="I51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="J51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="K51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="L51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="M51" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="N51" s="8">
+        <v>487.12</v>
+      </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="8">
         <v>72.39</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
+      <c r="D52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="E52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="F52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="G52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="H52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="I52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="J52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="K52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="L52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="M52" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="N52" s="8">
+        <v>72.39</v>
+      </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" s="8">
         <v>37</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+      <c r="D53" s="8">
+        <v>37</v>
+      </c>
+      <c r="E53" s="8">
+        <v>37</v>
+      </c>
+      <c r="F53" s="8">
+        <v>37</v>
+      </c>
+      <c r="G53" s="8">
+        <v>37</v>
+      </c>
+      <c r="H53" s="8">
+        <v>37</v>
+      </c>
+      <c r="I53" s="8">
+        <v>37</v>
+      </c>
+      <c r="J53" s="8">
+        <v>37</v>
+      </c>
+      <c r="K53" s="8">
+        <v>37</v>
+      </c>
+      <c r="L53" s="8">
+        <v>37</v>
+      </c>
+      <c r="M53" s="8">
+        <v>37</v>
+      </c>
+      <c r="N53" s="8">
+        <v>37</v>
+      </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="8">
         <v>737</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
+      <c r="D54" s="8">
+        <v>737</v>
+      </c>
+      <c r="E54" s="8">
+        <v>737</v>
+      </c>
+      <c r="F54" s="8">
+        <v>737</v>
+      </c>
+      <c r="G54" s="8">
+        <v>737</v>
+      </c>
+      <c r="H54" s="8">
+        <v>737</v>
+      </c>
+      <c r="I54" s="8">
+        <v>737</v>
+      </c>
+      <c r="J54" s="8">
+        <v>737</v>
+      </c>
+      <c r="K54" s="8">
+        <v>737</v>
+      </c>
+      <c r="L54" s="8">
+        <v>737</v>
+      </c>
+      <c r="M54" s="8">
+        <v>737</v>
+      </c>
+      <c r="N54" s="8">
+        <v>737</v>
+      </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="11">
-        <f>IF(SUM(C14:C54)=0,0,SUM(C14:C54))</f>
-        <v>7858.87</v>
+        <f t="shared" ref="C55:N55" si="12">IF(SUM(C14:C54)=0,0,SUM(C14:C54))</f>
+        <v>41435.85</v>
       </c>
       <c r="D55" s="11">
-        <f>IF(SUM(D14:D54)=0,0,SUM(D14:D54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>45486.82</v>
       </c>
       <c r="E55" s="11">
-        <f>IF(SUM(E14:E54)=0,0,SUM(E14:E54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>14642.399999999998</v>
       </c>
       <c r="F55" s="11">
-        <f>IF(SUM(F14:F54)=0,0,SUM(F14:F54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>13591.27</v>
       </c>
       <c r="G55" s="11">
-        <f>IF(SUM(G14:G54)=0,0,SUM(G14:G54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>13028.01</v>
       </c>
       <c r="H55" s="11">
-        <f>IF(SUM(H14:H54)=0,0,SUM(H14:H54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>13075.53</v>
       </c>
       <c r="I55" s="11">
-        <f>IF(SUM(I14:I54)=0,0,SUM(I14:I54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>12630.01</v>
       </c>
       <c r="J55" s="11">
-        <f>IF(SUM(J14:J54)=0,0,SUM(J14:J54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>12594.519999999999</v>
       </c>
       <c r="K55" s="11">
-        <f>IF(SUM(K14:K54)=0,0,SUM(K14:K54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>12694.519999999999</v>
       </c>
       <c r="L55" s="11">
-        <f>IF(SUM(L14:L54)=0,0,SUM(L14:L54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>13294.519999999999</v>
       </c>
       <c r="M55" s="11">
-        <f>IF(SUM(M14:M54)=0,0,SUM(M14:M54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>13294.519999999999</v>
       </c>
       <c r="N55" s="11">
-        <f>IF(SUM(N14:N54)=0,0,SUM(N14:N54))</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>13394.519999999999</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -5172,52 +6095,52 @@
         <v>18</v>
       </c>
       <c r="C58" s="7">
-        <f>IF(C11="","",C11-C55)</f>
-        <v>7241.13</v>
+        <f t="shared" ref="C58:N58" si="13">IF(C11="","",C11-C55)</f>
+        <v>10164.150000000001</v>
       </c>
       <c r="D58" s="7">
-        <f>IF(D11="","",D11-D55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>-18936.82</v>
       </c>
       <c r="E58" s="7">
-        <f>IF(E11="","",E11-E55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>6957.6000000000022</v>
       </c>
       <c r="F58" s="7">
-        <f>IF(F11="","",F11-F55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>8008.73</v>
       </c>
       <c r="G58" s="7">
-        <f>IF(G11="","",G11-G55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>8571.99</v>
       </c>
       <c r="H58" s="7">
-        <f>IF(H11="","",H11-H55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>8524.4699999999993</v>
       </c>
       <c r="I58" s="7">
-        <f>IF(I11="","",I11-I55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>8969.99</v>
       </c>
       <c r="J58" s="7">
-        <f>IF(J11="","",J11-J55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>9005.4800000000014</v>
       </c>
       <c r="K58" s="7">
-        <f>IF(K11="","",K11-K55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>8905.4800000000014</v>
       </c>
       <c r="L58" s="7">
-        <f>IF(L11="","",L11-L55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>8305.4800000000014</v>
       </c>
       <c r="M58" s="7">
-        <f>IF(M11="","",M11-M55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>8305.4800000000014</v>
       </c>
       <c r="N58" s="7">
-        <f>IF(N11="","",N11-N55)</f>
-        <v>2000</v>
+        <f t="shared" si="13"/>
+        <v>8205.4800000000014</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
@@ -5226,51 +6149,51 @@
       </c>
       <c r="C59" s="13">
         <f>IF(C11=0,"",C58/C11)</f>
-        <v>0.47954503311258279</v>
+        <v>0.19697965116279073</v>
       </c>
       <c r="D59" s="14">
-        <f>IF(D11="","",D58/D11)</f>
-        <v>1</v>
+        <f t="shared" ref="D59:N59" si="14">IF(D11="","",D58/D11)</f>
+        <v>-0.71325122410546138</v>
       </c>
       <c r="E59" s="14">
-        <f>IF(E11="","",E58/E11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.32211111111111124</v>
       </c>
       <c r="F59" s="14">
-        <f>IF(F11="","",F58/F11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.370774537037037</v>
       </c>
       <c r="G59" s="14">
-        <f>IF(G11="","",G58/G11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.39685138888888888</v>
       </c>
       <c r="H59" s="14">
-        <f>IF(H11="","",H58/H11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.39465138888888884</v>
       </c>
       <c r="I59" s="14">
-        <f>IF(I11="","",I58/I11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.41527731481481478</v>
       </c>
       <c r="J59" s="14">
-        <f>IF(J11="","",J58/J11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.41692037037037044</v>
       </c>
       <c r="K59" s="14">
-        <f>IF(K11="","",K58/K11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.41229074074074079</v>
       </c>
       <c r="L59" s="14">
-        <f>IF(L11="","",L58/L11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.384512962962963</v>
       </c>
       <c r="M59" s="14">
-        <f>IF(M11="","",M58/M11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.384512962962963</v>
       </c>
       <c r="N59" s="14">
-        <f>IF(N11="","",N58/N11)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0.37988333333333341</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
@@ -5279,51 +6202,51 @@
       </c>
       <c r="C60" s="7">
         <f>C11*Relatórios!$F$9</f>
-        <v>3020</v>
+        <v>10320</v>
       </c>
       <c r="D60" s="7">
         <f>D11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>5310</v>
       </c>
       <c r="E60" s="7">
         <f>E11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="F60" s="7">
         <f>F11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="G60" s="7">
         <f>G11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="H60" s="7">
         <f>H11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="I60" s="7">
         <f>I11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="J60" s="7">
         <f>J11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="K60" s="7">
         <f>K11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="L60" s="7">
         <f>L11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="M60" s="7">
         <f>M11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
       <c r="N60" s="7">
         <f>N11*Relatórios!$F$9</f>
-        <v>400</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
@@ -5332,51 +6255,51 @@
       </c>
       <c r="C61" s="12">
         <f>C58</f>
-        <v>7241.13</v>
+        <v>10164.150000000001</v>
       </c>
       <c r="D61" s="12">
         <f>IF(D58="","",D58+C61)</f>
-        <v>9241.130000000001</v>
+        <v>-8772.6699999999983</v>
       </c>
       <c r="E61" s="12">
-        <f t="shared" ref="E61:N61" si="0">IF(E58="","",E58+D61)</f>
-        <v>11241.130000000001</v>
+        <f t="shared" ref="E61:N61" si="15">IF(E58="","",E58+D61)</f>
+        <v>-1815.0699999999961</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="0"/>
-        <v>13241.130000000001</v>
+        <f t="shared" si="15"/>
+        <v>6193.6600000000035</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="0"/>
-        <v>15241.130000000001</v>
+        <f t="shared" si="15"/>
+        <v>14765.650000000003</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="0"/>
-        <v>17241.13</v>
+        <f t="shared" si="15"/>
+        <v>23290.120000000003</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="0"/>
-        <v>19241.13</v>
+        <f t="shared" si="15"/>
+        <v>32260.11</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="0"/>
-        <v>21241.13</v>
+        <f t="shared" si="15"/>
+        <v>41265.590000000004</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="0"/>
-        <v>23241.13</v>
+        <f t="shared" si="15"/>
+        <v>50171.070000000007</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="0"/>
-        <v>25241.13</v>
+        <f t="shared" si="15"/>
+        <v>58476.55000000001</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="0"/>
-        <v>27241.13</v>
+        <f t="shared" si="15"/>
+        <v>66782.030000000013</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="0"/>
-        <v>29241.13</v>
+        <f t="shared" si="15"/>
+        <v>74987.510000000009</v>
       </c>
     </row>
   </sheetData>

--- a/gastos/quero-investir-agora-planilha-de-gastos-mensais.xlsx
+++ b/gastos/quero-investir-agora-planilha-de-gastos-mensais.xlsx
@@ -17,13 +17,13 @@
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Despesas">'Planilhas de Gastos Mensais'!$C$14:$N$54</definedName>
+    <definedName name="Despesas">'Planilhas de Gastos Mensais'!$C$23:$N$78</definedName>
     <definedName name="meses">Sheet2!$I$8:$J$19</definedName>
-    <definedName name="poupança">'Planilhas de Gastos Mensais'!$C$58:$N$61</definedName>
-    <definedName name="PoupançaAc">'Planilhas de Gastos Mensais'!$C$61:$N$61</definedName>
-    <definedName name="PoupançaMensal">'Planilhas de Gastos Mensais'!$C$58:$N$58</definedName>
+    <definedName name="poupança">'Planilhas de Gastos Mensais'!$C$82:$N$85</definedName>
+    <definedName name="PoupançaAc">'Planilhas de Gastos Mensais'!$C$85:$N$85</definedName>
+    <definedName name="PoupançaMensal">'Planilhas de Gastos Mensais'!$C$82:$N$82</definedName>
     <definedName name="ProcurarMes">VLOOKUP('Planilhas de Gastos Mensais'!A1048576,meses,2)</definedName>
-    <definedName name="Receitas">'Planilhas de Gastos Mensais'!$C$6:$N$10</definedName>
+    <definedName name="Receitas">'Planilhas de Gastos Mensais'!$C$6:$N$19</definedName>
     <definedName name="teste123">INDEX(Despesas,,Sheet2!$J$6)</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
   <si>
     <t>Luz</t>
   </si>
@@ -251,14 +251,21 @@
     <t>Alimentação/Casa</t>
   </si>
   <si>
-    <t>Titim/Eliezer</t>
+    <t>MBA Judah</t>
+  </si>
+  <si>
+    <t>Eliezer</t>
+  </si>
+  <si>
+    <t>Titim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
@@ -462,7 +469,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -502,6 +509,8 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -1054,9 +1063,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Planilhas de Gastos Mensais'!$B$14:$B$54</c:f>
+              <c:f>'Planilhas de Gastos Mensais'!$B$23:$B$63</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Condominio</c:v>
                 </c:pt>
@@ -1154,31 +1163,7 @@
                   <c:v>FIES Judah/Lucas</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Financiamneto Landscape</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Adiantamento Landscape</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>IPTU Landscape</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>DAF Landscape</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Internet Landscape</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Condominio Landscape</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>IPTU Taruma</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Luz Taruma</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Condominio Taruma</c:v>
+                  <c:v>MBA Judah</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1188,7 +1173,7 @@
               <c:f>[0]!teste123</c:f>
               <c:numCache>
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>885.0</c:v>
                 </c:pt>
@@ -1258,6 +1243,9 @@
                 <c:pt idx="25">
                   <c:v>2024.11</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>800.0</c:v>
+                </c:pt>
                 <c:pt idx="27">
                   <c:v>131.65</c:v>
                 </c:pt>
@@ -1265,30 +1253,33 @@
                   <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3570.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3534.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>20000.0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="49">
                   <c:v>173.64</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="50">
                   <c:v>800.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="51">
                   <c:v>112.5</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="52">
                   <c:v>487.12</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="53">
                   <c:v>72.39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="54">
                   <c:v>37.0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="55">
                   <c:v>737.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1306,11 +1297,11 @@
         </c:dLbls>
         <c:gapWidth val="79"/>
         <c:overlap val="100"/>
-        <c:axId val="1029428768"/>
-        <c:axId val="1296892176"/>
+        <c:axId val="-980501600"/>
+        <c:axId val="-980499280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1029428768"/>
+        <c:axId val="-980501600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296892176"/>
+        <c:crossAx val="-980499280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1375,7 +1366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1296892176"/>
+        <c:axId val="-980499280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1376,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1029428768"/>
+        <c:crossAx val="-980501600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1460,7 +1451,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Planilhas de Gastos Mensais'!$B$58</c:f>
+              <c:f>'Planilhas de Gastos Mensais'!$B$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1525,45 +1516,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Planilhas de Gastos Mensais'!$C$58:$N$58</c:f>
+              <c:f>'Planilhas de Gastos Mensais'!$C$82:$N$82</c:f>
               <c:numCache>
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10164.15</c:v>
+                  <c:v>7333.839999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18936.82</c:v>
+                  <c:v>-21767.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6957.600000000002</c:v>
+                  <c:v>707.2900000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8008.73</c:v>
+                  <c:v>1758.419999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8571.99</c:v>
+                  <c:v>2321.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8524.469999999999</c:v>
+                  <c:v>2274.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8969.99</c:v>
+                  <c:v>2719.68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9005.480000000001</c:v>
+                  <c:v>2755.170000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8905.480000000001</c:v>
+                  <c:v>2655.170000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8305.480000000001</c:v>
+                  <c:v>2055.169999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8305.480000000001</c:v>
+                  <c:v>2055.169999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8205.480000000001</c:v>
+                  <c:v>2072.769999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,8 +1569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="247"/>
-        <c:axId val="1441468128"/>
-        <c:axId val="1494361840"/>
+        <c:axId val="-1092684784"/>
+        <c:axId val="-1092682032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1589,7 +1580,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Planilhas de Gastos Mensais'!$B$60</c:f>
+              <c:f>'Planilhas de Gastos Mensais'!$B$84</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1656,45 +1647,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Planilhas de Gastos Mensais'!$C$60:$N$60</c:f>
+              <c:f>'Planilhas de Gastos Mensais'!$C$84:$N$84</c:f>
               <c:numCache>
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10320.0</c:v>
+                  <c:v>10086.898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5310.0</c:v>
+                  <c:v>5076.898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4320.0</c:v>
+                  <c:v>4086.898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,11 +1702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1441468128"/>
-        <c:axId val="1494361840"/>
+        <c:axId val="-1092684784"/>
+        <c:axId val="-1092682032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1441468128"/>
+        <c:axId val="-1092684784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1494361840"/>
+        <c:crossAx val="-1092682032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1766,7 +1757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1494361840"/>
+        <c:axId val="-1092682032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1441468128"/>
+        <c:crossAx val="-1092684784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,6 +1822,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1912,6 +1904,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1952,7 +1945,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Planilhas de Gastos Mensais'!$B$61</c:f>
+              <c:f>'Planilhas de Gastos Mensais'!$B$85</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2016,45 +2009,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Planilhas de Gastos Mensais'!$C$61:$N$61</c:f>
+              <c:f>'Planilhas de Gastos Mensais'!$C$85:$N$85</c:f>
               <c:numCache>
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10164.15</c:v>
+                  <c:v>7333.839999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8772.669999999998</c:v>
+                  <c:v>-14433.29000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1815.069999999996</c:v>
+                  <c:v>-13726.00000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6193.660000000003</c:v>
+                  <c:v>-11967.58000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14765.65</c:v>
+                  <c:v>-9645.900000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23290.12</c:v>
+                  <c:v>-7371.740000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32260.11</c:v>
+                  <c:v>-4652.060000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41265.59</c:v>
+                  <c:v>-1896.890000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50171.07000000001</c:v>
+                  <c:v>758.2799999999951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58476.55000000001</c:v>
+                  <c:v>2813.449999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66782.03000000001</c:v>
+                  <c:v>4868.619999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74987.51000000001</c:v>
+                  <c:v>6941.389999999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,11 +2061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1298768208"/>
-        <c:axId val="1495848256"/>
+        <c:axId val="-1094022672"/>
+        <c:axId val="-1094020352"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1298768208"/>
+        <c:axId val="-1094022672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1495848256"/>
+        <c:crossAx val="-1094020352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +2116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1495848256"/>
+        <c:axId val="-1094020352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1298768208"/>
+        <c:crossAx val="-1094022672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3868,14 +3861,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -4230,7 +4223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A52" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4282,10 +4275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P61"/>
+  <dimension ref="B3:P85"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4293,7 +4286,7 @@
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -4358,40 +4351,40 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="D6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="E6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="F6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="G6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="H6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="I6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="J6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="K6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="L6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="M6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
       <c r="N6" s="7">
-        <v>8300</v>
+        <v>7134.49</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -4519,1787 +4512,2118 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="15">
-        <f>30000+1500</f>
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="D10" s="15">
-        <f>4950+1500</f>
-        <v>6450</v>
-      </c>
-      <c r="E10" s="15">
+        <v>4950</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="15">
         <v>1500</v>
       </c>
-      <c r="F10" s="15">
+      <c r="D11" s="15">
         <v>1500</v>
       </c>
-      <c r="G10" s="15">
+      <c r="E11" s="15">
         <v>1500</v>
       </c>
-      <c r="H10" s="15">
+      <c r="F11" s="15">
         <v>1500</v>
       </c>
-      <c r="I10" s="15">
+      <c r="G11" s="15">
         <v>1500</v>
       </c>
-      <c r="J10" s="15">
+      <c r="H11" s="15">
         <v>1500</v>
       </c>
-      <c r="K10" s="15">
+      <c r="I11" s="15">
         <v>1500</v>
       </c>
-      <c r="L10" s="15">
+      <c r="J11" s="15">
         <v>1500</v>
       </c>
-      <c r="M10" s="15">
+      <c r="K11" s="15">
         <v>1500</v>
       </c>
-      <c r="N10" s="15">
+      <c r="L11" s="15">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="M11" s="15">
+        <v>1500</v>
+      </c>
+      <c r="N11" s="15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" ref="C11:N11" si="0">IF(C6="","",SUM(C6:C10))</f>
-        <v>51600</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" ref="D11" si="1">IF(D6="","",SUM(D6:D10))</f>
-        <v>26550</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" ref="E11" si="2">IF(E6="","",SUM(E6:E10))</f>
-        <v>21600</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" ref="F11" si="3">IF(F6="","",SUM(F6:F10))</f>
-        <v>21600</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" ref="G11" si="4">IF(G6="","",SUM(G6:G10))</f>
-        <v>21600</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" ref="H11" si="5">IF(H6="","",SUM(H6:H10))</f>
-        <v>21600</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" ref="I11" si="6">IF(I6="","",SUM(I6:I10))</f>
-        <v>21600</v>
-      </c>
-      <c r="J11" s="11">
-        <f t="shared" ref="J11" si="7">IF(J6="","",SUM(J6:J10))</f>
-        <v>21600</v>
-      </c>
-      <c r="K11" s="11">
-        <f t="shared" ref="K11" si="8">IF(K6="","",SUM(K6:K10))</f>
-        <v>21600</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" ref="L11" si="9">IF(L6="","",SUM(L6:L10))</f>
-        <v>21600</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" ref="M11" si="10">IF(M6="","",SUM(M6:M10))</f>
-        <v>21600</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" ref="N11" si="11">IF(N6="","",SUM(N6:N10))</f>
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="C20" s="11">
+        <f>IF(C6="","",SUM(C6:C19))</f>
+        <v>50434.49</v>
+      </c>
+      <c r="D20" s="11">
+        <f>IF(D6="","",SUM(D6:D19))</f>
+        <v>25384.489999999998</v>
+      </c>
+      <c r="E20" s="11">
+        <f>IF(E6="","",SUM(E6:E19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="F20" s="11">
+        <f>IF(F6="","",SUM(F6:F19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="G20" s="11">
+        <f>IF(G6="","",SUM(G6:G19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="H20" s="11">
+        <f>IF(H6="","",SUM(H6:H19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="I20" s="11">
+        <f>IF(I6="","",SUM(I6:I19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="J20" s="11">
+        <f>IF(J6="","",SUM(J6:J19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="K20" s="11">
+        <f>IF(K6="","",SUM(K6:K19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="L20" s="11">
+        <f>IF(L6="","",SUM(L6:L19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="M20" s="11">
+        <f>IF(M6="","",SUM(M6:M19))</f>
+        <v>20434.489999999998</v>
+      </c>
+      <c r="N20" s="11">
+        <f>IF(N6="","",SUM(N6:N19))</f>
+        <v>20434.489999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7">
-        <v>885</v>
-      </c>
-      <c r="D14" s="7">
-        <v>885</v>
-      </c>
-      <c r="E14" s="7">
-        <v>885</v>
-      </c>
-      <c r="F14" s="7">
-        <v>885</v>
-      </c>
-      <c r="G14" s="7">
-        <v>885</v>
-      </c>
-      <c r="H14" s="7">
-        <v>885</v>
-      </c>
-      <c r="I14" s="7">
-        <v>885</v>
-      </c>
-      <c r="J14" s="7">
-        <v>885</v>
-      </c>
-      <c r="K14" s="7">
-        <v>885</v>
-      </c>
-      <c r="L14" s="7">
-        <v>885</v>
-      </c>
-      <c r="M14" s="7">
-        <v>885</v>
-      </c>
-      <c r="N14" s="7">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1655.72</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1655.72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>420.72</v>
-      </c>
-      <c r="D16" s="8">
-        <v>400</v>
-      </c>
-      <c r="E16" s="8">
-        <v>400</v>
-      </c>
-      <c r="F16" s="8">
-        <v>400</v>
-      </c>
-      <c r="G16" s="8">
-        <v>400</v>
-      </c>
-      <c r="H16" s="8">
-        <v>400</v>
-      </c>
-      <c r="I16" s="8">
-        <v>400</v>
-      </c>
-      <c r="J16" s="8">
-        <v>400</v>
-      </c>
-      <c r="K16" s="8">
-        <v>400</v>
-      </c>
-      <c r="L16" s="8">
-        <v>400</v>
-      </c>
-      <c r="M16" s="8">
-        <v>400</v>
-      </c>
-      <c r="N16" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="7">
-        <v>180</v>
-      </c>
-      <c r="D17" s="7">
-        <v>180</v>
-      </c>
-      <c r="E17" s="7">
-        <v>180</v>
-      </c>
-      <c r="F17" s="7">
-        <v>180</v>
-      </c>
-      <c r="G17" s="7">
-        <v>180</v>
-      </c>
-      <c r="H17" s="7">
-        <v>180</v>
-      </c>
-      <c r="I17" s="7">
-        <v>180</v>
-      </c>
-      <c r="J17" s="7">
-        <v>180</v>
-      </c>
-      <c r="K17" s="7">
-        <v>180</v>
-      </c>
-      <c r="L17" s="7">
-        <v>180</v>
-      </c>
-      <c r="M17" s="7">
-        <v>180</v>
-      </c>
-      <c r="N17" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8">
-        <v>580</v>
-      </c>
-      <c r="D18" s="8">
-        <v>580</v>
-      </c>
-      <c r="E18" s="8">
-        <v>580</v>
-      </c>
-      <c r="F18" s="8">
-        <v>580</v>
-      </c>
-      <c r="G18" s="8">
-        <v>580</v>
-      </c>
-      <c r="H18" s="8">
-        <v>580</v>
-      </c>
-      <c r="I18" s="8">
-        <v>580</v>
-      </c>
-      <c r="J18" s="8">
-        <v>580</v>
-      </c>
-      <c r="K18" s="8">
-        <v>580</v>
-      </c>
-      <c r="L18" s="8">
-        <v>580</v>
-      </c>
-      <c r="M18" s="8">
-        <v>580</v>
-      </c>
-      <c r="N18" s="8">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="7">
-        <v>600</v>
-      </c>
-      <c r="D19" s="7">
-        <v>600</v>
-      </c>
-      <c r="E19" s="7">
-        <v>600</v>
-      </c>
-      <c r="F19" s="7">
-        <v>600</v>
-      </c>
-      <c r="G19" s="7">
-        <v>600</v>
-      </c>
-      <c r="H19" s="7">
-        <v>600</v>
-      </c>
-      <c r="I19" s="7">
-        <v>600</v>
-      </c>
-      <c r="J19" s="7">
-        <v>600</v>
-      </c>
-      <c r="K19" s="7">
-        <v>600</v>
-      </c>
-      <c r="L19" s="7">
-        <v>600</v>
-      </c>
-      <c r="M19" s="7">
-        <v>600</v>
-      </c>
-      <c r="N19" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="8">
-        <v>300</v>
-      </c>
-      <c r="D20" s="8">
-        <v>300</v>
-      </c>
-      <c r="E20" s="8">
-        <v>300</v>
-      </c>
-      <c r="F20" s="8">
-        <v>300</v>
-      </c>
-      <c r="G20" s="8">
-        <v>300</v>
-      </c>
-      <c r="H20" s="8">
-        <v>300</v>
-      </c>
-      <c r="I20" s="8">
-        <v>300</v>
-      </c>
-      <c r="J20" s="8">
-        <v>300</v>
-      </c>
-      <c r="K20" s="8">
-        <v>300</v>
-      </c>
-      <c r="L20" s="8">
-        <v>300</v>
-      </c>
-      <c r="M20" s="8">
-        <v>300</v>
-      </c>
-      <c r="N20" s="8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="7">
-        <v>300</v>
-      </c>
-      <c r="D21" s="7">
-        <v>300</v>
-      </c>
-      <c r="E21" s="7">
-        <v>300</v>
-      </c>
-      <c r="F21" s="7">
-        <v>300</v>
-      </c>
-      <c r="G21" s="7">
-        <v>300</v>
-      </c>
-      <c r="H21" s="7">
-        <v>300</v>
-      </c>
-      <c r="I21" s="7">
-        <v>300</v>
-      </c>
-      <c r="J21" s="7">
-        <v>300</v>
-      </c>
-      <c r="K21" s="7">
-        <v>300</v>
-      </c>
-      <c r="L21" s="7">
-        <v>300</v>
-      </c>
-      <c r="M21" s="7">
-        <v>300</v>
-      </c>
-      <c r="N21" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C23" s="7">
-        <v>350</v>
+        <v>885</v>
       </c>
       <c r="D23" s="7">
-        <v>350</v>
+        <v>885</v>
       </c>
       <c r="E23" s="7">
-        <v>350</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+        <v>885</v>
+      </c>
+      <c r="F23" s="7">
+        <v>885</v>
+      </c>
+      <c r="G23" s="7">
+        <v>885</v>
+      </c>
+      <c r="H23" s="7">
+        <v>885</v>
+      </c>
+      <c r="I23" s="7">
+        <v>885</v>
+      </c>
+      <c r="J23" s="7">
+        <v>885</v>
+      </c>
+      <c r="K23" s="7">
+        <v>885</v>
+      </c>
       <c r="L23" s="7">
-        <v>350</v>
+        <v>885</v>
       </c>
       <c r="M23" s="7">
-        <v>350</v>
+        <v>885</v>
       </c>
       <c r="N23" s="7">
-        <v>350</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="7">
-        <v>350</v>
-      </c>
-      <c r="D24" s="7">
-        <v>350</v>
-      </c>
-      <c r="E24" s="7">
-        <v>350</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7">
-        <v>350</v>
-      </c>
-      <c r="M24" s="7">
-        <v>350</v>
-      </c>
-      <c r="N24" s="7">
-        <v>350</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="M24" s="8">
+        <v>1655.72</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1655.72</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>420.72</v>
+      </c>
+      <c r="D25" s="8">
+        <v>400</v>
+      </c>
+      <c r="E25" s="8">
+        <v>400</v>
+      </c>
+      <c r="F25" s="8">
+        <v>400</v>
+      </c>
+      <c r="G25" s="8">
+        <v>400</v>
+      </c>
+      <c r="H25" s="8">
+        <v>400</v>
+      </c>
+      <c r="I25" s="8">
+        <v>400</v>
+      </c>
+      <c r="J25" s="8">
+        <v>400</v>
+      </c>
+      <c r="K25" s="8">
+        <v>400</v>
+      </c>
+      <c r="L25" s="8">
+        <v>400</v>
+      </c>
+      <c r="M25" s="8">
+        <v>400</v>
+      </c>
+      <c r="N25" s="8">
+        <v>400</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>670</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="P26" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="D26" s="7">
+        <v>180</v>
+      </c>
+      <c r="E26" s="7">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7">
+        <v>180</v>
+      </c>
+      <c r="G26" s="7">
+        <v>180</v>
+      </c>
+      <c r="H26" s="7">
+        <v>180</v>
+      </c>
+      <c r="I26" s="7">
+        <v>180</v>
+      </c>
+      <c r="J26" s="7">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7">
+        <v>180</v>
+      </c>
+      <c r="M26" s="7">
+        <v>180</v>
+      </c>
+      <c r="N26" s="7">
+        <v>180</v>
+      </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="7">
-        <v>670</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="C27" s="8">
+        <v>580</v>
+      </c>
+      <c r="D27" s="8">
+        <v>580</v>
+      </c>
+      <c r="E27" s="8">
+        <v>580</v>
+      </c>
+      <c r="F27" s="8">
+        <v>580</v>
+      </c>
+      <c r="G27" s="8">
+        <v>580</v>
+      </c>
+      <c r="H27" s="8">
+        <v>580</v>
+      </c>
+      <c r="I27" s="8">
+        <v>580</v>
+      </c>
+      <c r="J27" s="8">
+        <v>580</v>
+      </c>
+      <c r="K27" s="8">
+        <v>580</v>
+      </c>
+      <c r="L27" s="8">
+        <v>580</v>
+      </c>
+      <c r="M27" s="8">
+        <v>580</v>
+      </c>
+      <c r="N27" s="8">
+        <v>580</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="2:16" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29" s="20" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="C28" s="7">
+        <v>600</v>
+      </c>
+      <c r="D28" s="7">
+        <v>600</v>
+      </c>
+      <c r="E28" s="7">
+        <v>600</v>
+      </c>
+      <c r="F28" s="7">
+        <v>600</v>
+      </c>
+      <c r="G28" s="7">
+        <v>600</v>
+      </c>
+      <c r="H28" s="7">
+        <v>600</v>
+      </c>
+      <c r="I28" s="7">
+        <v>600</v>
+      </c>
+      <c r="J28" s="7">
+        <v>600</v>
+      </c>
+      <c r="K28" s="7">
+        <v>600</v>
+      </c>
+      <c r="L28" s="7">
+        <v>600</v>
+      </c>
+      <c r="M28" s="7">
+        <v>600</v>
+      </c>
+      <c r="N28" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="8">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="D29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M29" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N29" s="8">
-        <v>100</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="J30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="M30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N30" s="7">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="8">
-        <v>25</v>
-      </c>
-      <c r="D31" s="8">
-        <v>25</v>
-      </c>
-      <c r="E31" s="8">
-        <v>25</v>
-      </c>
-      <c r="F31" s="8">
-        <v>25</v>
-      </c>
-      <c r="G31" s="8">
-        <v>25</v>
-      </c>
-      <c r="H31" s="8">
-        <v>25</v>
-      </c>
-      <c r="I31" s="8">
-        <v>25</v>
-      </c>
-      <c r="J31" s="8">
-        <v>25</v>
-      </c>
-      <c r="K31" s="8">
-        <v>25</v>
-      </c>
-      <c r="L31" s="8">
-        <v>25</v>
-      </c>
-      <c r="M31" s="8">
-        <v>25</v>
-      </c>
-      <c r="N31" s="8">
-        <v>25</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="7">
+        <v>350</v>
+      </c>
+      <c r="D32" s="7">
+        <v>350</v>
+      </c>
+      <c r="E32" s="7">
+        <v>350</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7">
+        <v>350</v>
+      </c>
+      <c r="M32" s="7">
+        <v>350</v>
+      </c>
+      <c r="N32" s="7">
+        <v>350</v>
+      </c>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="7">
+        <v>350</v>
+      </c>
+      <c r="D33" s="7">
+        <v>350</v>
+      </c>
+      <c r="E33" s="7">
+        <v>350</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
+        <v>350</v>
+      </c>
+      <c r="M33" s="7">
+        <v>350</v>
+      </c>
+      <c r="N33" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="7">
+        <v>670</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="P35" s="15"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="7">
+        <v>670</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="8">
+        <v>194</v>
+      </c>
+      <c r="D38" s="8">
+        <v>100</v>
+      </c>
+      <c r="E38" s="8">
+        <v>100</v>
+      </c>
+      <c r="F38" s="8">
+        <v>100</v>
+      </c>
+      <c r="G38" s="8">
+        <v>100</v>
+      </c>
+      <c r="H38" s="8">
+        <v>100</v>
+      </c>
+      <c r="I38" s="8">
+        <v>100</v>
+      </c>
+      <c r="J38" s="8">
+        <v>100</v>
+      </c>
+      <c r="K38" s="8">
+        <v>100</v>
+      </c>
+      <c r="L38" s="8">
+        <v>100</v>
+      </c>
+      <c r="M38" s="8">
+        <v>100</v>
+      </c>
+      <c r="N38" s="8">
+        <v>100</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="7">
+        <v>50</v>
+      </c>
+      <c r="D39" s="7">
+        <v>50</v>
+      </c>
+      <c r="E39" s="7">
+        <v>50</v>
+      </c>
+      <c r="F39" s="7">
+        <v>50</v>
+      </c>
+      <c r="G39" s="7">
+        <v>50</v>
+      </c>
+      <c r="H39" s="7">
+        <v>50</v>
+      </c>
+      <c r="I39" s="7">
+        <v>50</v>
+      </c>
+      <c r="J39" s="7">
+        <v>50</v>
+      </c>
+      <c r="K39" s="7">
+        <v>50</v>
+      </c>
+      <c r="L39" s="7">
+        <v>50</v>
+      </c>
+      <c r="M39" s="7">
+        <v>50</v>
+      </c>
+      <c r="N39" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8">
+        <v>25</v>
+      </c>
+      <c r="D40" s="8">
+        <v>25</v>
+      </c>
+      <c r="E40" s="8">
+        <v>25</v>
+      </c>
+      <c r="F40" s="8">
+        <v>25</v>
+      </c>
+      <c r="G40" s="8">
+        <v>25</v>
+      </c>
+      <c r="H40" s="8">
+        <v>25</v>
+      </c>
+      <c r="I40" s="8">
+        <v>25</v>
+      </c>
+      <c r="J40" s="8">
+        <v>25</v>
+      </c>
+      <c r="K40" s="8">
+        <v>25</v>
+      </c>
+      <c r="L40" s="8">
+        <v>25</v>
+      </c>
+      <c r="M40" s="8">
+        <v>25</v>
+      </c>
+      <c r="N40" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C41" s="7">
         <v>25</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D41" s="7">
         <v>25</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E41" s="7">
         <v>25</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F41" s="7">
         <v>25</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G41" s="7">
         <v>25</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H41" s="7">
         <v>25</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I41" s="7">
         <v>25</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J41" s="7">
         <v>25</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K41" s="7">
         <v>25</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L41" s="7">
         <v>25</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M41" s="7">
         <v>25</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N41" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C42" s="8">
         <v>35</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D42" s="8">
         <v>35</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E42" s="8">
         <v>35</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F42" s="8">
         <v>35</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G42" s="8">
         <v>35</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H42" s="8">
         <v>35</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I42" s="8">
         <v>35</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J42" s="8">
         <v>35</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K42" s="8">
         <v>35</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L42" s="8">
         <v>35</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M42" s="8">
         <v>35</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N42" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C43" s="8">
         <v>1200</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D43" s="8">
         <v>1200</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E43" s="8">
         <v>1200</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F43" s="8">
         <v>1200</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G43" s="8">
         <v>1200</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H43" s="8">
         <v>1200</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I43" s="8">
         <v>1200</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J43" s="8">
         <v>1200</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K43" s="8">
         <v>1200</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L43" s="8">
         <v>1200</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M43" s="8">
         <v>1200</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N43" s="8">
         <v>1200</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C44" s="8">
         <v>200</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D44" s="8">
         <v>200</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E44" s="8">
         <v>200</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F44" s="8">
         <v>200</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G44" s="8">
         <v>200</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H44" s="8">
         <v>200</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I44" s="8">
         <v>200</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J44" s="8">
         <v>200</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K44" s="8">
         <v>200</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L44" s="8">
         <v>200</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M44" s="8">
         <v>200</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N44" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C45" s="8">
         <v>300</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D45" s="8">
         <v>300</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E45" s="8">
         <v>300</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F45" s="8">
         <v>300</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G45" s="8">
         <v>300</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H45" s="8">
         <v>300</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I45" s="8">
         <v>300</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J45" s="8">
         <v>300</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K45" s="8">
         <v>300</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L45" s="8">
         <v>300</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M45" s="8">
         <v>300</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N45" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C46" s="7">
         <v>150</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D46" s="7">
         <v>150</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E46" s="7">
         <v>150</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F46" s="7">
         <v>150</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G46" s="7">
         <v>150</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H46" s="7">
         <v>150</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I46" s="7">
         <v>150</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J46" s="7">
         <v>150</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K46" s="7">
         <v>150</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L46" s="7">
         <v>150</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M46" s="7">
         <v>150</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N46" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C47" s="7">
         <v>150</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D47" s="7">
         <v>150</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E47" s="7">
         <v>150</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F47" s="7">
         <v>150</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G47" s="7">
         <v>150</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H47" s="7">
         <v>150</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I47" s="7">
         <v>150</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J47" s="7">
         <v>150</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K47" s="7">
         <v>150</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L47" s="7">
         <v>150</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M47" s="7">
         <v>150</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N47" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C48" s="8">
         <v>2024.11</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D48" s="8">
         <v>2173.44</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E48" s="8">
         <v>666.79</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F48" s="8">
         <v>466.8</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G48" s="8">
         <v>433.49</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H48" s="8">
         <v>381.01</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I48" s="8">
         <v>35.49</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="D41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="E41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="F41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="G41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="H41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="I41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="J41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="K41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="L41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="M41" s="7">
-        <v>131.65</v>
-      </c>
-      <c r="N41" s="7">
-        <v>131.65</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8">
-        <v>450.46</v>
-      </c>
-      <c r="E42" s="8">
-        <v>476.96</v>
-      </c>
-      <c r="F42" s="8">
-        <v>529.95000000000005</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="8">
-        <v>4000</v>
-      </c>
-      <c r="D43" s="8">
-        <v>14568.4</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8">
-        <v>104.13</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8">
-        <v>100</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8">
-        <v>100</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8">
-        <v>100</v>
-      </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="D46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="E46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="F46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="G46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="H46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="I46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="J46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="K46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="L46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="M46" s="7">
-        <v>3570</v>
-      </c>
-      <c r="N46" s="7">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="8">
-        <v>20000</v>
-      </c>
-      <c r="D47" s="8">
-        <v>15000</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="D48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="E48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="F48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="G48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="H48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="I48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="J48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="K48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="L48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="M48" s="8">
-        <v>173.64</v>
-      </c>
-      <c r="N48" s="8">
-        <v>173.64</v>
-      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C49" s="8">
         <v>800</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
+      <c r="D49" s="8">
+        <v>800</v>
+      </c>
+      <c r="E49" s="8">
+        <v>800</v>
+      </c>
+      <c r="F49" s="8">
+        <v>800</v>
+      </c>
+      <c r="G49" s="8">
+        <v>800</v>
+      </c>
+      <c r="H49" s="8">
+        <v>800</v>
+      </c>
+      <c r="I49" s="8">
+        <v>800</v>
+      </c>
+      <c r="J49" s="8">
+        <v>800</v>
+      </c>
+      <c r="K49" s="8">
+        <v>800</v>
+      </c>
+      <c r="L49" s="8">
+        <v>800</v>
+      </c>
+      <c r="M49" s="8">
+        <v>800</v>
+      </c>
+      <c r="N49" s="8">
+        <v>800</v>
+      </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="8">
-        <v>112.5</v>
-      </c>
-      <c r="D50" s="8">
-        <v>250</v>
-      </c>
-      <c r="E50" s="8">
-        <v>250</v>
-      </c>
-      <c r="F50" s="8">
-        <v>250</v>
-      </c>
-      <c r="G50" s="8">
-        <v>250</v>
-      </c>
-      <c r="H50" s="8">
-        <v>250</v>
-      </c>
-      <c r="I50" s="8">
-        <v>250</v>
-      </c>
-      <c r="J50" s="8">
-        <v>250</v>
-      </c>
-      <c r="K50" s="8">
-        <v>250</v>
-      </c>
-      <c r="L50" s="8">
-        <v>250</v>
-      </c>
-      <c r="M50" s="8">
-        <v>250</v>
-      </c>
-      <c r="N50" s="8">
-        <v>250</v>
+        <v>61</v>
+      </c>
+      <c r="C50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="D50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="E50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="F50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="G50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="H50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="I50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="J50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="K50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="L50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="M50" s="7">
+        <v>131.65</v>
+      </c>
+      <c r="N50" s="7">
+        <v>131.65</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="8">
-        <v>487.12</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C51" s="8"/>
       <c r="D51" s="8">
-        <v>487.12</v>
+        <v>450.46</v>
       </c>
       <c r="E51" s="8">
-        <v>487.12</v>
+        <v>476.96</v>
       </c>
       <c r="F51" s="8">
-        <v>487.12</v>
-      </c>
-      <c r="G51" s="8">
-        <v>487.12</v>
-      </c>
-      <c r="H51" s="8">
-        <v>487.12</v>
-      </c>
-      <c r="I51" s="8">
-        <v>487.12</v>
-      </c>
-      <c r="J51" s="8">
-        <v>487.12</v>
-      </c>
-      <c r="K51" s="8">
-        <v>487.12</v>
-      </c>
-      <c r="L51" s="8">
-        <v>487.12</v>
-      </c>
-      <c r="M51" s="8">
-        <v>487.12</v>
-      </c>
-      <c r="N51" s="8">
-        <v>487.12</v>
-      </c>
+        <v>529.95000000000005</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="7"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C52" s="8">
-        <v>72.39</v>
+        <v>4000</v>
       </c>
       <c r="D52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="E52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="F52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="G52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="H52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="I52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="J52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="K52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="L52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="M52" s="8">
-        <v>72.39</v>
-      </c>
-      <c r="N52" s="8">
-        <v>72.39</v>
-      </c>
+        <v>14568.4</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="8">
-        <v>37</v>
-      </c>
-      <c r="D53" s="8">
-        <v>37</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="8">
-        <v>37</v>
-      </c>
-      <c r="F53" s="8">
-        <v>37</v>
-      </c>
-      <c r="G53" s="8">
-        <v>37</v>
-      </c>
-      <c r="H53" s="8">
-        <v>37</v>
-      </c>
-      <c r="I53" s="8">
-        <v>37</v>
-      </c>
-      <c r="J53" s="8">
-        <v>37</v>
-      </c>
-      <c r="K53" s="8">
-        <v>37</v>
-      </c>
-      <c r="L53" s="8">
-        <v>37</v>
-      </c>
-      <c r="M53" s="8">
-        <v>37</v>
-      </c>
-      <c r="N53" s="8">
-        <v>37</v>
-      </c>
+        <v>104.13</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8">
+        <v>100</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8">
+        <v>100</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8">
+        <v>100</v>
+      </c>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="7">
+        <v>900</v>
+      </c>
+      <c r="D55" s="7">
+        <v>900</v>
+      </c>
+      <c r="E55" s="7">
+        <v>900</v>
+      </c>
+      <c r="F55" s="7">
+        <v>900</v>
+      </c>
+      <c r="G55" s="7">
+        <v>900</v>
+      </c>
+      <c r="H55" s="7">
+        <v>900</v>
+      </c>
+      <c r="I55" s="7">
+        <v>900</v>
+      </c>
+      <c r="J55" s="7">
+        <v>900</v>
+      </c>
+      <c r="K55" s="7">
+        <v>900</v>
+      </c>
+      <c r="L55" s="7">
+        <v>900</v>
+      </c>
+      <c r="M55" s="7">
+        <v>900</v>
+      </c>
+      <c r="N55" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="5"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="5"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="5"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" s="5"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" s="5"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="22">
+        <f>111500-O70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="D70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="E70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="F70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="G70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="H70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="I70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="J70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="K70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="L70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="M70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="N70" s="7">
+        <v>3534.8</v>
+      </c>
+      <c r="O70" s="21">
+        <f>SUM(C70:N70)+SUM(C71:N71)</f>
+        <v>111500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D71" s="8">
+        <v>15000</v>
+      </c>
+      <c r="E71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="F71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="G71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="H71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="I71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="J71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="K71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="L71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="M71" s="8">
+        <v>3420</v>
+      </c>
+      <c r="N71" s="8">
+        <f>3302.4</f>
+        <v>3302.4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="D72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="E72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="F72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="G72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="H72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="I72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="J72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="K72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="L72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="M72" s="8">
+        <v>173.64</v>
+      </c>
+      <c r="N72" s="8">
+        <v>173.64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="8">
+        <v>800</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="8">
+        <v>112.5</v>
+      </c>
+      <c r="D74" s="8">
+        <v>250</v>
+      </c>
+      <c r="E74" s="8">
+        <v>250</v>
+      </c>
+      <c r="F74" s="8">
+        <v>250</v>
+      </c>
+      <c r="G74" s="8">
+        <v>250</v>
+      </c>
+      <c r="H74" s="8">
+        <v>250</v>
+      </c>
+      <c r="I74" s="8">
+        <v>250</v>
+      </c>
+      <c r="J74" s="8">
+        <v>250</v>
+      </c>
+      <c r="K74" s="8">
+        <v>250</v>
+      </c>
+      <c r="L74" s="8">
+        <v>250</v>
+      </c>
+      <c r="M74" s="8">
+        <v>250</v>
+      </c>
+      <c r="N74" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="D75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="E75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="F75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="G75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="H75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="I75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="J75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="K75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="L75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="M75" s="8">
+        <v>487.12</v>
+      </c>
+      <c r="N75" s="8">
+        <v>487.12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="D76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="E76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="F76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="G76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="H76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="I76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="J76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="K76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="L76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="M76" s="8">
+        <v>72.39</v>
+      </c>
+      <c r="N76" s="8">
+        <v>72.39</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="8">
+        <v>37</v>
+      </c>
+      <c r="D77" s="8">
+        <v>37</v>
+      </c>
+      <c r="E77" s="8">
+        <v>37</v>
+      </c>
+      <c r="F77" s="8">
+        <v>37</v>
+      </c>
+      <c r="G77" s="8">
+        <v>37</v>
+      </c>
+      <c r="H77" s="8">
+        <v>37</v>
+      </c>
+      <c r="I77" s="8">
+        <v>37</v>
+      </c>
+      <c r="J77" s="8">
+        <v>37</v>
+      </c>
+      <c r="K77" s="8">
+        <v>37</v>
+      </c>
+      <c r="L77" s="8">
+        <v>37</v>
+      </c>
+      <c r="M77" s="8">
+        <v>37</v>
+      </c>
+      <c r="N77" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C78" s="8">
         <v>737</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D78" s="8">
         <v>737</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E78" s="8">
         <v>737</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F78" s="8">
         <v>737</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G78" s="8">
         <v>737</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H78" s="8">
         <v>737</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I78" s="8">
         <v>737</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J78" s="8">
         <v>737</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K78" s="8">
         <v>737</v>
       </c>
-      <c r="L54" s="8">
+      <c r="L78" s="8">
         <v>737</v>
       </c>
-      <c r="M54" s="8">
+      <c r="M78" s="8">
         <v>737</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N78" s="8">
         <v>737</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B79" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="11">
-        <f t="shared" ref="C55:N55" si="12">IF(SUM(C14:C54)=0,0,SUM(C14:C54))</f>
-        <v>41435.85</v>
-      </c>
-      <c r="D55" s="11">
-        <f t="shared" si="12"/>
-        <v>45486.82</v>
-      </c>
-      <c r="E55" s="11">
-        <f t="shared" si="12"/>
-        <v>14642.399999999998</v>
-      </c>
-      <c r="F55" s="11">
-        <f t="shared" si="12"/>
-        <v>13591.27</v>
-      </c>
-      <c r="G55" s="11">
-        <f t="shared" si="12"/>
-        <v>13028.01</v>
-      </c>
-      <c r="H55" s="11">
-        <f t="shared" si="12"/>
-        <v>13075.53</v>
-      </c>
-      <c r="I55" s="11">
-        <f t="shared" si="12"/>
-        <v>12630.01</v>
-      </c>
-      <c r="J55" s="11">
-        <f t="shared" si="12"/>
-        <v>12594.519999999999</v>
-      </c>
-      <c r="K55" s="11">
-        <f t="shared" si="12"/>
-        <v>12694.519999999999</v>
-      </c>
-      <c r="L55" s="11">
-        <f t="shared" si="12"/>
-        <v>13294.519999999999</v>
-      </c>
-      <c r="M55" s="11">
-        <f t="shared" si="12"/>
-        <v>13294.519999999999</v>
-      </c>
-      <c r="N55" s="11">
-        <f t="shared" si="12"/>
-        <v>13394.519999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
+      <c r="C79" s="11">
+        <f>IF(SUM(C23:C78)=0,0,SUM(C23:C78))</f>
+        <v>43100.65</v>
+      </c>
+      <c r="D79" s="11">
+        <f>IF(SUM(D23:D78)=0,0,SUM(D23:D78))</f>
+        <v>47151.62</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" ref="E79:N79" si="0">IF(SUM(E23:E78)=0,0,SUM(E23:E78))</f>
+        <v>19727.199999999997</v>
+      </c>
+      <c r="F79" s="11">
+        <f t="shared" si="0"/>
+        <v>18676.07</v>
+      </c>
+      <c r="G79" s="11">
+        <f t="shared" si="0"/>
+        <v>18112.809999999998</v>
+      </c>
+      <c r="H79" s="11">
+        <f t="shared" si="0"/>
+        <v>18160.329999999998</v>
+      </c>
+      <c r="I79" s="11">
+        <f t="shared" si="0"/>
+        <v>17714.809999999998</v>
+      </c>
+      <c r="J79" s="11">
+        <f t="shared" si="0"/>
+        <v>17679.319999999996</v>
+      </c>
+      <c r="K79" s="11">
+        <f t="shared" si="0"/>
+        <v>17779.319999999996</v>
+      </c>
+      <c r="L79" s="11">
+        <f t="shared" si="0"/>
+        <v>18379.32</v>
+      </c>
+      <c r="M79" s="11">
+        <f t="shared" si="0"/>
+        <v>18379.32</v>
+      </c>
+      <c r="N79" s="11">
+        <f t="shared" si="0"/>
+        <v>18361.72</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="7">
-        <f t="shared" ref="C58:N58" si="13">IF(C11="","",C11-C55)</f>
-        <v>10164.150000000001</v>
-      </c>
-      <c r="D58" s="7">
-        <f t="shared" si="13"/>
-        <v>-18936.82</v>
-      </c>
-      <c r="E58" s="7">
-        <f t="shared" si="13"/>
-        <v>6957.6000000000022</v>
-      </c>
-      <c r="F58" s="7">
-        <f t="shared" si="13"/>
-        <v>8008.73</v>
-      </c>
-      <c r="G58" s="7">
-        <f t="shared" si="13"/>
-        <v>8571.99</v>
-      </c>
-      <c r="H58" s="7">
-        <f t="shared" si="13"/>
-        <v>8524.4699999999993</v>
-      </c>
-      <c r="I58" s="7">
-        <f t="shared" si="13"/>
-        <v>8969.99</v>
-      </c>
-      <c r="J58" s="7">
-        <f t="shared" si="13"/>
-        <v>9005.4800000000014</v>
-      </c>
-      <c r="K58" s="7">
-        <f t="shared" si="13"/>
-        <v>8905.4800000000014</v>
-      </c>
-      <c r="L58" s="7">
-        <f t="shared" si="13"/>
-        <v>8305.4800000000014</v>
-      </c>
-      <c r="M58" s="7">
-        <f t="shared" si="13"/>
-        <v>8305.4800000000014</v>
-      </c>
-      <c r="N58" s="7">
-        <f t="shared" si="13"/>
-        <v>8205.4800000000014</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
+      <c r="C82" s="7">
+        <f>IF(C20="","",C20-C79)</f>
+        <v>7333.8399999999965</v>
+      </c>
+      <c r="D82" s="7">
+        <f>IF(D20="","",D20-D79)</f>
+        <v>-21767.130000000005</v>
+      </c>
+      <c r="E82" s="7">
+        <f>IF(E20="","",E20-E79)</f>
+        <v>707.29000000000087</v>
+      </c>
+      <c r="F82" s="7">
+        <f>IF(F20="","",F20-F79)</f>
+        <v>1758.4199999999983</v>
+      </c>
+      <c r="G82" s="7">
+        <f>IF(G20="","",G20-G79)</f>
+        <v>2321.6800000000003</v>
+      </c>
+      <c r="H82" s="7">
+        <f>IF(H20="","",H20-H79)</f>
+        <v>2274.16</v>
+      </c>
+      <c r="I82" s="7">
+        <f>IF(I20="","",I20-I79)</f>
+        <v>2719.6800000000003</v>
+      </c>
+      <c r="J82" s="7">
+        <f>IF(J20="","",J20-J79)</f>
+        <v>2755.1700000000019</v>
+      </c>
+      <c r="K82" s="7">
+        <f>IF(K20="","",K20-K79)</f>
+        <v>2655.1700000000019</v>
+      </c>
+      <c r="L82" s="7">
+        <f>IF(L20="","",L20-L79)</f>
+        <v>2055.1699999999983</v>
+      </c>
+      <c r="M82" s="7">
+        <f>IF(M20="","",M20-M79)</f>
+        <v>2055.1699999999983</v>
+      </c>
+      <c r="N82" s="7">
+        <f>IF(N20="","",N20-N79)</f>
+        <v>2072.7699999999968</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B83" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="13">
-        <f>IF(C11=0,"",C58/C11)</f>
-        <v>0.19697965116279073</v>
-      </c>
-      <c r="D59" s="14">
-        <f t="shared" ref="D59:N59" si="14">IF(D11="","",D58/D11)</f>
-        <v>-0.71325122410546138</v>
-      </c>
-      <c r="E59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.32211111111111124</v>
-      </c>
-      <c r="F59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.370774537037037</v>
-      </c>
-      <c r="G59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.39685138888888888</v>
-      </c>
-      <c r="H59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.39465138888888884</v>
-      </c>
-      <c r="I59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.41527731481481478</v>
-      </c>
-      <c r="J59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.41692037037037044</v>
-      </c>
-      <c r="K59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.41229074074074079</v>
-      </c>
-      <c r="L59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.384512962962963</v>
-      </c>
-      <c r="M59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.384512962962963</v>
-      </c>
-      <c r="N59" s="14">
-        <f t="shared" si="14"/>
-        <v>0.37988333333333341</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="5" t="s">
+      <c r="C83" s="13">
+        <f>IF(C20=0,"",C82/C20)</f>
+        <v>0.1454131884747917</v>
+      </c>
+      <c r="D83" s="14">
+        <f>IF(D20="","",D82/D20)</f>
+        <v>-0.85749723551664836</v>
+      </c>
+      <c r="E83" s="14">
+        <f>IF(E20="","",E82/E20)</f>
+        <v>3.4612559452181141E-2</v>
+      </c>
+      <c r="F83" s="14">
+        <f>IF(F20="","",F82/F20)</f>
+        <v>8.6051572610816238E-2</v>
+      </c>
+      <c r="G83" s="14">
+        <f>IF(G20="","",G82/G20)</f>
+        <v>0.11361575454048525</v>
+      </c>
+      <c r="H83" s="14">
+        <f>IF(H20="","",H82/H20)</f>
+        <v>0.11129027443307858</v>
+      </c>
+      <c r="I83" s="14">
+        <f>IF(I20="","",I82/I20)</f>
+        <v>0.13309262917743483</v>
+      </c>
+      <c r="J83" s="14">
+        <f>IF(J20="","",J82/J20)</f>
+        <v>0.13482939872734784</v>
+      </c>
+      <c r="K83" s="14">
+        <f>IF(K20="","",K82/K20)</f>
+        <v>0.1299357116326369</v>
+      </c>
+      <c r="L83" s="14">
+        <f>IF(L20="","",L82/L20)</f>
+        <v>0.100573589064371</v>
+      </c>
+      <c r="M83" s="14">
+        <f>IF(M20="","",M82/M20)</f>
+        <v>0.100573589064371</v>
+      </c>
+      <c r="N83" s="14">
+        <f>IF(N20="","",N82/N20)</f>
+        <v>0.10143487799304005</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="7">
-        <f>C11*Relatórios!$F$9</f>
-        <v>10320</v>
-      </c>
-      <c r="D60" s="7">
-        <f>D11*Relatórios!$F$9</f>
-        <v>5310</v>
-      </c>
-      <c r="E60" s="7">
-        <f>E11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="F60" s="7">
-        <f>F11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="G60" s="7">
-        <f>G11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="H60" s="7">
-        <f>H11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="I60" s="7">
-        <f>I11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="J60" s="7">
-        <f>J11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="K60" s="7">
-        <f>K11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="L60" s="7">
-        <f>L11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="M60" s="7">
-        <f>M11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-      <c r="N60" s="7">
-        <f>N11*Relatórios!$F$9</f>
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="9" t="s">
+      <c r="C84" s="7">
+        <f>C20*Relatórios!$F$9</f>
+        <v>10086.898000000001</v>
+      </c>
+      <c r="D84" s="7">
+        <f>D20*Relatórios!$F$9</f>
+        <v>5076.8980000000001</v>
+      </c>
+      <c r="E84" s="7">
+        <f>E20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="F84" s="7">
+        <f>F20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="G84" s="7">
+        <f>G20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="H84" s="7">
+        <f>H20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="I84" s="7">
+        <f>I20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="J84" s="7">
+        <f>J20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="K84" s="7">
+        <f>K20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="L84" s="7">
+        <f>L20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="M84" s="7">
+        <f>M20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+      <c r="N84" s="7">
+        <f>N20*Relatórios!$F$9</f>
+        <v>4086.8979999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="12">
-        <f>C58</f>
-        <v>10164.150000000001</v>
-      </c>
-      <c r="D61" s="12">
-        <f>IF(D58="","",D58+C61)</f>
-        <v>-8772.6699999999983</v>
-      </c>
-      <c r="E61" s="12">
-        <f t="shared" ref="E61:N61" si="15">IF(E58="","",E58+D61)</f>
-        <v>-1815.0699999999961</v>
-      </c>
-      <c r="F61" s="12">
-        <f t="shared" si="15"/>
-        <v>6193.6600000000035</v>
-      </c>
-      <c r="G61" s="12">
-        <f t="shared" si="15"/>
-        <v>14765.650000000003</v>
-      </c>
-      <c r="H61" s="12">
-        <f t="shared" si="15"/>
-        <v>23290.120000000003</v>
-      </c>
-      <c r="I61" s="12">
-        <f t="shared" si="15"/>
-        <v>32260.11</v>
-      </c>
-      <c r="J61" s="12">
-        <f t="shared" si="15"/>
-        <v>41265.590000000004</v>
-      </c>
-      <c r="K61" s="12">
-        <f t="shared" si="15"/>
-        <v>50171.070000000007</v>
-      </c>
-      <c r="L61" s="12">
-        <f t="shared" si="15"/>
-        <v>58476.55000000001</v>
-      </c>
-      <c r="M61" s="12">
-        <f t="shared" si="15"/>
-        <v>66782.030000000013</v>
-      </c>
-      <c r="N61" s="12">
-        <f t="shared" si="15"/>
-        <v>74987.510000000009</v>
+      <c r="C85" s="12">
+        <f>C82</f>
+        <v>7333.8399999999965</v>
+      </c>
+      <c r="D85" s="12">
+        <f>IF(D82="","",D82+C85)</f>
+        <v>-14433.290000000008</v>
+      </c>
+      <c r="E85" s="12">
+        <f t="shared" ref="E85:N85" si="1">IF(E82="","",E82+D85)</f>
+        <v>-13726.000000000007</v>
+      </c>
+      <c r="F85" s="12">
+        <f t="shared" si="1"/>
+        <v>-11967.580000000009</v>
+      </c>
+      <c r="G85" s="12">
+        <f t="shared" si="1"/>
+        <v>-9645.9000000000087</v>
+      </c>
+      <c r="H85" s="12">
+        <f t="shared" si="1"/>
+        <v>-7371.7400000000089</v>
+      </c>
+      <c r="I85" s="12">
+        <f t="shared" si="1"/>
+        <v>-4652.0600000000086</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="1"/>
+        <v>-1896.8900000000067</v>
+      </c>
+      <c r="K85" s="12">
+        <f t="shared" si="1"/>
+        <v>758.2799999999952</v>
+      </c>
+      <c r="L85" s="12">
+        <f t="shared" si="1"/>
+        <v>2813.4499999999935</v>
+      </c>
+      <c r="M85" s="12">
+        <f t="shared" si="1"/>
+        <v>4868.6199999999917</v>
+      </c>
+      <c r="N85" s="12">
+        <f t="shared" si="1"/>
+        <v>6941.3899999999885</v>
       </c>
     </row>
   </sheetData>
@@ -6321,7 +6645,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C59:N59</xm:sqref>
+          <xm:sqref>C83:N83</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gastos/quero-investir-agora-planilha-de-gastos-mensais.xlsx
+++ b/gastos/quero-investir-agora-planilha-de-gastos-mensais.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>Luz</t>
   </si>
@@ -242,9 +242,6 @@
     <t>FIES Judah/Lucas</t>
   </si>
   <si>
-    <t>Financiamneto Landscape</t>
-  </si>
-  <si>
     <t>Adiantamento Landscape</t>
   </si>
   <si>
@@ -258,6 +255,45 @@
   </si>
   <si>
     <t>Titim</t>
+  </si>
+  <si>
+    <t>Financiamento Landscape</t>
+  </si>
+  <si>
+    <t>Financiamento Maluco</t>
+  </si>
+  <si>
+    <t>Objetivo de poupanca acumulada para aposentadoria:</t>
+  </si>
+  <si>
+    <t>Formato:</t>
+  </si>
+  <si>
+    <t>Tesouro Direto</t>
+  </si>
+  <si>
+    <t>Valor do Landscape</t>
+  </si>
+  <si>
+    <t>Valor do Taruma</t>
+  </si>
+  <si>
+    <t>Valor do Donatello</t>
+  </si>
+  <si>
+    <t>Total em Imóveis</t>
+  </si>
+  <si>
+    <t>para 5000 por mês:</t>
+  </si>
+  <si>
+    <t>anos</t>
+  </si>
+  <si>
+    <t>Total Mínimo para se aposentar</t>
+  </si>
+  <si>
+    <t>Passagens</t>
   </si>
 </sst>
 </file>
@@ -271,6 +307,13 @@
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -379,13 +422,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -408,7 +444,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -461,59 +498,67 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Bad" xfId="5" builtinId="27"/>
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
@@ -1065,7 +1110,7 @@
             <c:strRef>
               <c:f>'Planilhas de Gastos Mensais'!$B$23:$B$63</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Condominio</c:v>
                 </c:pt>
@@ -1164,6 +1209,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>MBA Judah</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10%</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Passagens</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1254,6 +1305,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5043.449000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3534.8</c:v>
@@ -1521,40 +1575,40 @@
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7333.839999999996</c:v>
+                  <c:v>2290.390999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-21767.13</c:v>
+                  <c:v>-25991.25900000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>707.2900000000008</c:v>
+                  <c:v>-1336.159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1758.419999999998</c:v>
+                  <c:v>-285.0290000000023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2321.68</c:v>
+                  <c:v>278.2309999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2274.16</c:v>
+                  <c:v>230.7109999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2719.68</c:v>
+                  <c:v>676.2309999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2755.170000000002</c:v>
+                  <c:v>711.7210000000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2655.170000000002</c:v>
+                  <c:v>611.7210000000013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2055.169999999998</c:v>
+                  <c:v>11.72099999999773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2055.169999999998</c:v>
+                  <c:v>11.72099999999773</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2072.769999999997</c:v>
+                  <c:v>-88.27900000000227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,40 +2068,40 @@
                 <c:formatCode>_-"R$"\ * #.##000_-;\-"R$"\ * #.##000_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7333.839999999996</c:v>
+                  <c:v>2290.390999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14433.29000000001</c:v>
+                  <c:v>-23700.86800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13726.00000000001</c:v>
+                  <c:v>-25037.02700000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11967.58000000001</c:v>
+                  <c:v>-25322.05600000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9645.900000000009</c:v>
+                  <c:v>-25043.82500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7371.740000000009</c:v>
+                  <c:v>-24813.11400000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4652.060000000008</c:v>
+                  <c:v>-24136.88300000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1896.890000000007</c:v>
+                  <c:v>-23425.16200000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>758.2799999999951</c:v>
+                  <c:v>-22813.44100000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2813.449999999993</c:v>
+                  <c:v>-22801.72000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4868.619999999991</c:v>
+                  <c:v>-22789.99900000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6941.389999999988</c:v>
+                  <c:v>-22878.27800000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,18 +4329,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P85"/>
+  <dimension ref="B3:P95"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="14.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -4512,7 +4566,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="15">
         <v>30000</v>
@@ -4533,7 +4587,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="15">
         <v>1500</v>
@@ -4571,6 +4625,30 @@
       <c r="N11" s="15">
         <v>1500</v>
       </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
@@ -4898,7 +4976,7 @@
         <v>300</v>
       </c>
       <c r="D29" s="8">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E29" s="8">
         <v>300</v>
@@ -4933,15 +5011,15 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="7">
         <v>300</v>
       </c>
-      <c r="D30" s="7">
-        <v>300</v>
+      <c r="D30" s="23">
+        <v>174.76</v>
       </c>
       <c r="E30" s="7">
         <v>300</v>
@@ -5124,8 +5202,8 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B38" s="20" t="s">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="8">
@@ -5333,13 +5411,14 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="8">
         <v>1200</v>
       </c>
       <c r="D43" s="8">
-        <v>1200</v>
+        <f>26.55+34.37+1200</f>
+        <v>1260.92</v>
       </c>
       <c r="E43" s="8">
         <v>1200</v>
@@ -5536,8 +5615,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B48" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="8">
@@ -5739,7 +5818,7 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="7">
         <v>900</v>
@@ -5779,22 +5858,62 @@
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
+      <c r="B56" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C56" s="8">
+        <f>0.1*C20</f>
+        <v>5043.4490000000005</v>
+      </c>
+      <c r="D56" s="8">
+        <f>0.1*D20</f>
+        <v>2538.4490000000001</v>
+      </c>
+      <c r="E56" s="8">
+        <f>0.1*E20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="F56" s="8">
+        <f>0.1*F20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="G56" s="8">
+        <f>0.1*G20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="H56" s="8">
+        <f>0.1*H20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="I56" s="8">
+        <f>0.1*I20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="J56" s="8">
+        <f>0.1*J20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="K56" s="8">
+        <f>0.1*K20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="L56" s="8">
+        <f>0.1*L20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="M56" s="8">
+        <f>0.1*M20</f>
+        <v>2043.4489999999998</v>
+      </c>
+      <c r="N56" s="8">
+        <f>0.1*N20</f>
+        <v>2043.4489999999998</v>
+      </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -5974,9 +6093,13 @@
       <c r="N68" s="8"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="5"/>
+      <c r="B69" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="D69" s="8">
+        <v>16900</v>
+      </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -5987,14 +6110,14 @@
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="22">
-        <f>111500-O70</f>
-        <v>0</v>
+      <c r="O69" s="21">
+        <f>111500+0.12*111500-O70</f>
+        <v>28262.399999999994</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C70" s="7">
         <v>3534.8</v>
@@ -6032,21 +6155,19 @@
       <c r="N70" s="7">
         <v>3534.8</v>
       </c>
-      <c r="O70" s="21">
+      <c r="O70" s="20">
         <f>SUM(C70:N70)+SUM(C71:N71)</f>
-        <v>111500</v>
+        <v>96617.600000000006</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="8">
         <v>20000</v>
       </c>
-      <c r="D71" s="8">
-        <v>15000</v>
-      </c>
+      <c r="D71" s="8"/>
       <c r="E71" s="8">
         <v>3420</v>
       </c>
@@ -6075,8 +6196,7 @@
         <v>3420</v>
       </c>
       <c r="N71" s="8">
-        <f>3302.4</f>
-        <v>3302.4</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
@@ -6350,54 +6470,54 @@
       </c>
       <c r="C79" s="11">
         <f>IF(SUM(C23:C78)=0,0,SUM(C23:C78))</f>
-        <v>43100.65</v>
+        <v>48144.099000000002</v>
       </c>
       <c r="D79" s="11">
         <f>IF(SUM(D23:D78)=0,0,SUM(D23:D78))</f>
-        <v>47151.62</v>
+        <v>51375.749000000003</v>
       </c>
       <c r="E79" s="11">
         <f t="shared" ref="E79:N79" si="0">IF(SUM(E23:E78)=0,0,SUM(E23:E78))</f>
-        <v>19727.199999999997</v>
+        <v>21770.648999999998</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="0"/>
-        <v>18676.07</v>
+        <v>20719.519</v>
       </c>
       <c r="G79" s="11">
         <f t="shared" si="0"/>
-        <v>18112.809999999998</v>
+        <v>20156.258999999998</v>
       </c>
       <c r="H79" s="11">
         <f t="shared" si="0"/>
-        <v>18160.329999999998</v>
+        <v>20203.778999999999</v>
       </c>
       <c r="I79" s="11">
         <f t="shared" si="0"/>
-        <v>17714.809999999998</v>
+        <v>19758.258999999998</v>
       </c>
       <c r="J79" s="11">
         <f t="shared" si="0"/>
-        <v>17679.319999999996</v>
+        <v>19722.768999999997</v>
       </c>
       <c r="K79" s="11">
         <f t="shared" si="0"/>
-        <v>17779.319999999996</v>
+        <v>19822.768999999997</v>
       </c>
       <c r="L79" s="11">
         <f t="shared" si="0"/>
-        <v>18379.32</v>
+        <v>20422.769</v>
       </c>
       <c r="M79" s="11">
         <f t="shared" si="0"/>
-        <v>18379.32</v>
+        <v>20422.769</v>
       </c>
       <c r="N79" s="11">
         <f t="shared" si="0"/>
-        <v>18361.72</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20522.769</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
@@ -6414,113 +6534,113 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C82" s="7">
         <f>IF(C20="","",C20-C79)</f>
-        <v>7333.8399999999965</v>
+        <v>2290.390999999996</v>
       </c>
       <c r="D82" s="7">
         <f>IF(D20="","",D20-D79)</f>
-        <v>-21767.130000000005</v>
+        <v>-25991.259000000005</v>
       </c>
       <c r="E82" s="7">
         <f>IF(E20="","",E20-E79)</f>
-        <v>707.29000000000087</v>
+        <v>-1336.1589999999997</v>
       </c>
       <c r="F82" s="7">
         <f>IF(F20="","",F20-F79)</f>
-        <v>1758.4199999999983</v>
+        <v>-285.02900000000227</v>
       </c>
       <c r="G82" s="7">
         <f>IF(G20="","",G20-G79)</f>
-        <v>2321.6800000000003</v>
+        <v>278.23099999999977</v>
       </c>
       <c r="H82" s="7">
         <f>IF(H20="","",H20-H79)</f>
-        <v>2274.16</v>
+        <v>230.71099999999933</v>
       </c>
       <c r="I82" s="7">
         <f>IF(I20="","",I20-I79)</f>
-        <v>2719.6800000000003</v>
+        <v>676.23099999999977</v>
       </c>
       <c r="J82" s="7">
         <f>IF(J20="","",J20-J79)</f>
-        <v>2755.1700000000019</v>
+        <v>711.72100000000137</v>
       </c>
       <c r="K82" s="7">
         <f>IF(K20="","",K20-K79)</f>
-        <v>2655.1700000000019</v>
+        <v>611.72100000000137</v>
       </c>
       <c r="L82" s="7">
         <f>IF(L20="","",L20-L79)</f>
-        <v>2055.1699999999983</v>
+        <v>11.72099999999773</v>
       </c>
       <c r="M82" s="7">
         <f>IF(M20="","",M20-M79)</f>
-        <v>2055.1699999999983</v>
+        <v>11.72099999999773</v>
       </c>
       <c r="N82" s="7">
         <f>IF(N20="","",N20-N79)</f>
-        <v>2072.7699999999968</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-88.27900000000227</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="13">
         <f>IF(C20=0,"",C82/C20)</f>
-        <v>0.1454131884747917</v>
+        <v>4.5413188474791678E-2</v>
       </c>
       <c r="D83" s="14">
         <f>IF(D20="","",D82/D20)</f>
-        <v>-0.85749723551664836</v>
+        <v>-1.0239031392791429</v>
       </c>
       <c r="E83" s="14">
         <f>IF(E20="","",E82/E20)</f>
-        <v>3.4612559452181141E-2</v>
+        <v>-6.5387440547818892E-2</v>
       </c>
       <c r="F83" s="14">
         <f>IF(F20="","",F82/F20)</f>
-        <v>8.6051572610816238E-2</v>
+        <v>-1.3948427389183792E-2</v>
       </c>
       <c r="G83" s="14">
         <f>IF(G20="","",G82/G20)</f>
-        <v>0.11361575454048525</v>
+        <v>1.3615754540485218E-2</v>
       </c>
       <c r="H83" s="14">
         <f>IF(H20="","",H82/H20)</f>
-        <v>0.11129027443307858</v>
+        <v>1.1290274433078553E-2</v>
       </c>
       <c r="I83" s="14">
         <f>IF(I20="","",I82/I20)</f>
-        <v>0.13309262917743483</v>
+        <v>3.3092629177434808E-2</v>
       </c>
       <c r="J83" s="14">
         <f>IF(J20="","",J82/J20)</f>
-        <v>0.13482939872734784</v>
+        <v>3.4829398727347805E-2</v>
       </c>
       <c r="K83" s="14">
         <f>IF(K20="","",K82/K20)</f>
-        <v>0.1299357116326369</v>
+        <v>2.9935711632636853E-2</v>
       </c>
       <c r="L83" s="14">
         <f>IF(L20="","",L82/L20)</f>
-        <v>0.100573589064371</v>
+        <v>5.7358906437095963E-4</v>
       </c>
       <c r="M83" s="14">
         <f>IF(M20="","",M82/M20)</f>
-        <v>0.100573589064371</v>
+        <v>5.7358906437095963E-4</v>
       </c>
       <c r="N83" s="14">
         <f>IF(N20="","",N82/N20)</f>
-        <v>0.10143487799304005</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-4.3200980303399932E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="5" t="s">
         <v>21</v>
       </c>
@@ -6573,57 +6693,133 @@
         <v>4086.8979999999997</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="12">
         <f>C82</f>
-        <v>7333.8399999999965</v>
+        <v>2290.390999999996</v>
       </c>
       <c r="D85" s="12">
         <f>IF(D82="","",D82+C85)</f>
-        <v>-14433.290000000008</v>
+        <v>-23700.868000000009</v>
       </c>
       <c r="E85" s="12">
         <f t="shared" ref="E85:N85" si="1">IF(E82="","",E82+D85)</f>
-        <v>-13726.000000000007</v>
+        <v>-25037.027000000009</v>
       </c>
       <c r="F85" s="12">
         <f t="shared" si="1"/>
-        <v>-11967.580000000009</v>
+        <v>-25322.056000000011</v>
       </c>
       <c r="G85" s="12">
         <f t="shared" si="1"/>
-        <v>-9645.9000000000087</v>
+        <v>-25043.825000000012</v>
       </c>
       <c r="H85" s="12">
         <f t="shared" si="1"/>
-        <v>-7371.7400000000089</v>
+        <v>-24813.114000000012</v>
       </c>
       <c r="I85" s="12">
         <f t="shared" si="1"/>
-        <v>-4652.0600000000086</v>
+        <v>-24136.883000000013</v>
       </c>
       <c r="J85" s="12">
         <f t="shared" si="1"/>
-        <v>-1896.8900000000067</v>
+        <v>-23425.162000000011</v>
       </c>
       <c r="K85" s="12">
         <f t="shared" si="1"/>
-        <v>758.2799999999952</v>
+        <v>-22813.44100000001</v>
       </c>
       <c r="L85" s="12">
         <f t="shared" si="1"/>
-        <v>2813.4499999999935</v>
+        <v>-22801.720000000012</v>
       </c>
       <c r="M85" s="12">
         <f t="shared" si="1"/>
-        <v>4868.6199999999917</v>
+        <v>-22789.999000000014</v>
       </c>
       <c r="N85" s="12">
         <f t="shared" si="1"/>
-        <v>6941.3899999999885</v>
+        <v>-22878.278000000017</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="8">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="8">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" s="8">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="12">
+        <f>SUM(C86:C90)</f>
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="12">
+        <f>O94-C91</f>
+        <v>350000</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" s="25">
+        <f>C92/(5000*12)</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O94" s="11">
+        <f>2000000</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E95" s="24"/>
+      <c r="N95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
